--- a/spreadsheet/avd_checklist.es.xlsx
+++ b/spreadsheet/avd_checklist.es.xlsx
@@ -3500,7 +3500,7 @@
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evalúe la Galería de imágenes compartidas de Azure.</t>
+          <t>Evalúe la Galería de proceso de Azure.</t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupo de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso en caso de un desastre mayor. El servicio Galería de imágenes compartidas de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
+          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupo de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso en caso de un desastre mayor. El servicio Galería de procesos de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">

--- a/spreadsheet/avd_checklist.es.xlsx
+++ b/spreadsheet/avd_checklist.es.xlsx
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -6621,850 +6621,2418 @@
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="n"/>
       <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -9522,7 +11090,25 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/avd_checklist.es.xlsx
+++ b/spreadsheet/avd_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de Azure Virtual Desktop</t>
+          <t>Azure Virtual Desktop Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determinar en qué región o regiones de Azure se implementarán los grupos de hosts AVD</t>
+          <t>Determinar el SLA de alta disponibilidad esperado para aplicaciones o escritorios publicados a través de AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente. </t>
+          <t xml:space="preserve">El plan de control AVD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr una disponibilidad mínima del 99,9 % para las direcciones URL del servicio Windows Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. También se debe considerar la disponibilidad de recursos/servicios dependientes y de infraestructura para satisfacer adecuadamente los requisitos globales de alta disponibilidad. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
+          <t>Evaluar la región de recuperación ante desastres geográficos para grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planifique la conectividad necesaria. </t>
+          <t>El modelo Active-Active' se puede lograr con varios grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar / replicar en absoluto. "Activo-pasivo" se puede lograr mediante Azure Site Recovery (ASR) o la implementación de grupos a petición con un mecanismo automatizado.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>¿Evaluó la latencia entre la ubicación de los usuarios y la infraestructura de Azure AVD?</t>
+          <t>Separar las aplicaciones críticas en diferentes grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ejecute la herramienta 'Windows Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima. </t>
+          <t>Antes de abordar la planeación y el diseño de BCDR de Windows Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determinar la ubicación de los metadatos para el servicio AVD</t>
+          <t>Planeación de la mejor opción de resistencia para la implementación del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD almacena metadatos solo para ejecutar el servicio en ubicaciones geográficas específicas, determinar qué está disponible hoy en día y si es adecuado en función de los requisitos del cliente. </t>
+          <t xml:space="preserve">? ¿Seleccionó el nivel de resistencia adecuado para las máquinas virtuales del grupo de hosts (conjunto de disponibilidad frente a zonas de disponibilidad)? ¿Conoce las implicaciones en el SLA de alta disponibilidad y los límites de escalabilidad que vienen con AS o AZ? ? Actualmente puede implementar 399 máquinas virtuales por implementación de plantilla ARM de escritorio virtual de Windows sin conjuntos de disponibilidad o 200 máquinas virtuales por conjunto de disponibilidad. Puede aumentar el número de máquinas virtuales por implementación desactivando los conjuntos de disponibilidad en la plantilla de ARM o en la inscripción del grupo de hosts de Azure Portal. Ahora es posible implementar AZ, una AZ a la vez en este momento, necesita crear manualmente una fracción de máquinas virtuales en cada AZ deseada. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños de máquina virtual específicos en las regiones seleccionadas</t>
+          <t>Evaluar el requisito de copia de seguridad de los hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compruebe si hay SKU de vm específicas, especialmente si necesita GPU o SKU de especificaciones altas y, finalmente, disponibilidad de Azure NetApp Files si se usa. </t>
+          <t xml:space="preserve">Copia de seguridad de Azure también se puede usar para proteger máquinas virtuales del grupo de hosts, esta práctica es compatible, incluso si las máquinas virtuales del grupo de hosts no tienen estado. Esta opción podría considerarse para grupos de hosts personales. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Dependencias</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Comprobar la disponibilidad de la zona de disponibilidad (AZ) en la región seleccionada</t>
+          <t>Planeación de la disponibilidad de Golden Image entre regiones</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Consulte la sección BCDR para obtener más detalles.</t>
+          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupos de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso si se trata de un desastre importante. El servicio Galería de proceso de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Dependencias</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Evalúe cuántos usuarios se conectarán a AVD y desde qué regiones</t>
+          <t xml:space="preserve">Evaluar las dependencias de infraestructura y aplicaciones </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para una planificación e implementación adecuadas, es importante evaluar el número máximo de usuarios y el promedio de sesiones simultáneas. </t>
+          <t>Si los usuarios de la infraestructura AVD necesitan acceso a recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben considerarse para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determinar si todos los usuarios tendrán el mismo conjunto de aplicaciones y/o diferentes configuraciones de grupo de hosts y/o imágenes del sistema operativo</t>
+          <t>Evaluar qué datos deben protegerse dentro de los contenedores de perfil y oficina</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools puede ser necesario para admitir diferentes conjuntos de usuarios, se recomienda estimar cuántos serán necesarios. </t>
+          <t xml:space="preserve">No todos los datos dentro de los perfiles de usuario de FSLogix pueden merecer protección contra desastres. Además, si se utiliza almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo caché). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Evaluar dependencias externas para cada grupo de hosts</t>
+          <t>Crear una estrategia de protección de copia de seguridad para contenedores de perfiles y Office</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Las dependencias de recursos externos al grupo de AVD deben evaluarse y revisarse, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN y/o Express Route, servicios externos y componentes de terceros. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
+          <t>Prevenir la pérdida de datos para los datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos del usuario. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de contenedores de Office y perfiles cuando se almacenan en los niveles Standard y Premium de Azure Files. Azure NetApp Files Snapshots and Policies se puede usar para Azure NetApp Files (todos los niveles).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Revisar el sistema operativo cliente utilizado y el tipo de cliente AVD</t>
+          <t>Evaluar los requerimientos de replicación y la resiliencia del almacenamiento de almacenamiento de información de contenedores de perfiles para fines de BCDR</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
+          <t>En AVD, se pueden usar múltiples mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix: Patrón de perfil #1: ¿Mecanismos de replicación de almacenamiento nativos de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files o Azure Files Sync para servidores de archivos basados en máquinas virtuales? Se recomienda usar el almacenamiento replicado en zona (ZRS) o el almacenamiento con replicación geográfica (GRS) para Azure Files. LRS con resistencia solo local se puede usar si no se requiere protección de zona/región. NOTA: Azure Files Share Standard es LRS/ZRS/GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiten LRS/ZRS. ? Patrón de perfil # 2: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache solo debe usarse cuando:? Perfil de usuario o contenedores de Office disponibilidad de datos requeridos SLA de alta disponibilidad es crítico y debe ser resistente a errores de región. La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con compatibilidad con archivos grandes habilitada, GRS no está disponible. Cuando se requiere replicación entre almacenamiento de información dispares. Patrón de perfil # 3: Solo configure la recuperación geográfica ante desastres para los datos de la aplicación y no para los contenedores de datos / perfiles del usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de DR incorporado.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de licencia</t>
+          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Los clientes que tienen la licencia adecuada para ejecutar cargas de trabajo de Windows Virtual Desktop son elegibles para aplicar una licencia de Windows a sus máquinas virtuales de host de sesión y ejecutarlas sin pagar por otra licencia.</t>
+          <t>Recuperación ante desastres geográfica: Azure NetApp Files es esencialmente LRS (almacenamiento replicado localmente), entonces necesita diseñar algo más si desea la replicación entre regiones. La recomendación para la multiregión en este momento es Cloud Sync de NetApp, replicando en otra región de Azure (y NetApp Volume). Copia de seguridad: Las copias de seguridad son manejadas por instantáneas, pero no son automáticas, deben programarse mediante políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Hay un límite máximo de instantáneas (255) por volumen, como se documenta aquí: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Ejecute un PoC para probar la experiencia del usuario de extremo a extremo y comprobar el impacto causado por la latencia de la red</t>
+          <t>Revisión de la estrategia de recuperación ante desastres de Azure Files</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno poC pequeño. </t>
+          <t>Recuperación ante desastres geográfica: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con recursos compartidos grandes, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica, al usar Azure File Share Premium, se debe evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) "en la región". Copia de seguridad: Azure Backup es totalmente compatible con Azure File Share todos los SKU y es la solución recomendada para proteger los contenedores de perfiles. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar si los usuarios accederán a AVD utilizando escritorios completos y/o aplicaciones remotas </t>
+          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine si a los usuarios se les ofrecerán escritorios completos y/o grupos de aplicaciones remotas. </t>
+          <t>Las aplicaciones se pueden preinstalar en la(s) imagen(es) dorada, se pueden adjuntar utilizando la función MSIX &amp; AppAttach o distribuyendo a hosts después de la implementación del grupo utilizando métodos tradicionales de distribución de SW.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Todos los usuarios tendrán la misma configuración de RDP? </t>
+          <t>Estimar el número de imágenes doradas que se requerirán</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario / grupo.</t>
+          <t>¿Usarán el enmascaramiento de aplicaciones fslogix que se prestaría a una sola imagen, o múltiples imágenes con diferentes aplicaciones incorporadas: ¿qué es lo que requiere que se use más de una imagen?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evaluar RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
+          <t>Determinar qué imagenes del sistema operativo usará para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RDP Shortpath para redes administradas es una característica de Azure Virtual Desktop que establece un transporte directo basado en UDP entre el cliente de Escritorio remoto y el host de sesión. La eliminación del relé adicional reduce el tiempo de ida y vuelta, lo que mejora la experiencia del usuario con aplicaciones sensibles a la latencia y métodos de entrada. Para admitir RDP Shortpath, el cliente de Azure Virtual Desktop necesita una línea de visión directa al host de sesión y debe ejecutar Windows 10 o Windows 7 y tener instalado el cliente de escritorio de Windows.</t>
+          <t>Determine qué SO invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determinar el tipo de grupo de hosts que se va a usar</t>
+          <t>Si se va a utilizar una imagen personalizada, determine si existe un proceso de compilación automatizado.</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Compartido/Agrupado o Dedicado/Personal</t>
+          <t xml:space="preserve">Si no existe nada, considere la posibilidad de usar Azure Image Builder para automatizar el proceso de compilación. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Para el tipo de grupo de hosts personales, decida el tipo de asignación</t>
+          <t>Si se va a utilizar una imagen personalizada, ¿existe un plan para organizar y gestionar el ciclo de vida de las imágenes?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es adecuada para el escenario en cuestión.</t>
+          <t>Evalúe la Galería de proceso de Azure.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para el tipo de grupo de hosts agrupados, decida el método de equilibrio de carga</t>
+          <t>Si se va a utilizar una imagen personalizada, consulte las prácticas recomendadas para AVD sobre cómo crear una imagen maestra</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique cuál usar y las opciones disponibles, tenga en cuenta que si se usará el escalado automático, lo configura en amplitud primero. </t>
+          <t xml:space="preserve">Hay algunas mejores prácticas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes que se van a implementar </t>
+          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Según sus criterios de selección, ¿cuántos grupos de hosts necesitaría? Usted debe considerar tener varios si:? ¿Múltiples imágenes del sistema operativo? ¿Varias regiones? ¿Se requiere un HW diferente? ¿Diferente tipo de grupo de hosts (compartido vs. personal)? ¿Diferentes requisitos de usuario y SLA (usuarios principales, ejecutivos, trabajadores de Oficina vs. desarrolladores, etc.)? Diferentes configuraciones de RDP (aplicadas en el nivel del grupo de hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número requerido de máquinas virtuales en el grupo de hosts que superan las capacidades máximas</t>
+          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Ejecutar la prueba de rendimiento de la carga de trabajo para determinar la mejor SKU de máquina virtual de Azure y el tamaño que se debe usar (determinar el número de hosts por grupo)</t>
+          <t>Planificar/evaluar la estrategia de gestión de la configuración del host de sesión AVD</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de 4 núcleos para producción por host de sesión (multisesión)</t>
+          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de la máquina virtual del grupo de hosts después de la implementación inicial, por ejemplo, SCCM, MEM/Intune, GPO, soluciones de 3rd-party.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verificar los límites de escalabilidad de AVD para el entorno</t>
+          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es fundamental verificar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. </t>
+          <t>Revise el artículo proporcionado y marque 'Redirección de carpetas conocidas' y 'Archivos a petición' Las características de OneDrive deben considerarse y, finalmente, adoptarse.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determinar si los hosts de sesión requerirán GPU</t>
+          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia. </t>
+          <t>Asegúrese de revisar este artículo y usar la versión más reciente, revisar y evaluar las exclusiones de Teams para reducir el tamaño del perfil.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda usar SKU de máquina virtual capaces de aprovechar la característica de redes aceleradas en Azure.</t>
+          <t xml:space="preserve">No use la misma cuenta/recurso compartido de almacenamiento que los contenedores de perfil/Office </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Hoy en día, el sistema operativo Windows Server es compatible (consulte la lista en el artículo), en el futuro el sistema operativo cliente de Windows también puede incluirse. </t>
+          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas de almacenamiento/recursos compartidos independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S del perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que estas opciones ofrecen el mejor valor entre costo y gastos generales de administración. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Un inquilino de Azure Active Directory debe estar disponible con al menos una suscripción vinculada</t>
+          <t>Revisar las consideraciones de rendimiento para MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Una suscripción de Azure debe ser parentesca al mismo inquilino de Azure AD, que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory o Azure AD DS.</t>
+          <t>En el artículo al que se hace referencia, informamos pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto AVD, asegúrese de revisarlo cuidadosamente.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Un bosque/dominio de Windows Server Active Directory está sincronizado con Azure Active Directory</t>
+          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Puede configurarlo mediante Azure AD Connect (para organizaciones híbridas) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube).</t>
+          <t>La conexión de la aplicación MSIX requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuentas de almacenamiento y permisos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de la cuenta de usuario para conectarse a Windows Virtual Desktop</t>
+          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) El usuario debe provenir del mismo Active Directory que está conectado a Azure AD. Windows Virtual Desktop no admite cuentas B2B o MSA. (2) El UPN que usa para suscribirse a Windows Virtual Desktop debe existir en el dominio de Active Directory al que está unida la máquina virtual.</t>
+          <t>El proveedor de software de 3rd party debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de la máquina virtual para los hosts de sesión AVD que se crearán</t>
+          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales deben estar unidas a un dominio estándar o híbridas unidas a AD. Las máquinas virtuales no se pueden unir a Azure AD.</t>
+          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que debe deshabilitarse.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>EA962A15-9394-46da-A7CC-3923266B2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar los Servicios de dominio de Azure Active Directory (AAD-DS) para AVD, asegúrese de revisar las limitaciones. </t>
+          <t>Revisar la compatibilidad con sistemas operativos</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Comparar los Servicios de dominio de Active Directory autoadministrados, Azure Active Directory y los Servicios de dominio de Azure Active Directory administrados</t>
+          <t>Para aprovechar MSIX &amp; App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10 Enterprise o Windows 10 Enterprise Multi-session, versión 2004 o posterior.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Host de sesión</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Crear al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts de AVD</t>
+          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomiendan los controladores de dominio de AD en Azure para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, de Azure NetApp Files y la integración de AD. ADC debe poder hablar con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe utilizar la conectividad local para llegar a los controladores de dominio de AD. </t>
+          <t>Una vez seleccionada la SKU de máquina virtual que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
+          <t>Determinación del tipo de grupo de hosts que se va a usar</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
+          <t>Compartido/Agrupado o Dedicado/Personal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Revisar el GPO de dominio que se aplicará a la unidad organizativa y que afectará a las funcionalidades de la máquina virtual del grupo de hosts</t>
+          <t>Para el tipo de grupo de hosts personales, decida el tipo de asignación</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise detenidamente y, finalmente, bloquee/filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
+          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es apropiada para el escenario en cuestión.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
+          <t>Para Tipo de grupo de hosts agrupados, decida el método de equilibrio de carga</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda tener una cuenta dedicada específica con permisos específicos y sin la limitación predeterminada de 10 uniones. </t>
+          <t xml:space="preserve">Compruebe cuál usar y las opciones disponibles, tenga en cuenta que si se utilizará el escalado automático, lo establece en amplitud primero. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios al que se concederá acceso a cada grupo de aplicaciones de grupo de hosts (DAG o RAG)</t>
+          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes para implementar </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y reprodúzcalos con ADC en Azure AD. </t>
+          <t>Según sus criterios de selección, ¿cuántos grupos de hosts necesitaría? Deberías considerar tener varios si:? ¿Múltiples imágenes del sistema operativo? ¿Varias regiones? ¿Se requiere un HW diferente? ¿Diferentes tipos de grupo de hosts (compartido vs. personal)? ¿Diferentes requisitos de usuario y SLA (usuarios principales, ejecutivos, trabajadores de oficina frente a desarrolladores, etc.)? Diferentes configuraciones de RDP (aplicadas a nivel de grupo de hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número requerido de máquinas virtuales en el grupo de hosts que supera las capacidades máximas</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Revisar la directiva de caducidad de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
+          <t>Ejecute una prueba de rendimiento de carga de trabajo para determinar el mejor SKU de máquina virtual de Azure y el tamaño que se debe usar (determinar el número de hosts por grupo)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Como parte del procedimiento para integrar Azure File Share y Active Directory authenticaton, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede optar por registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una edad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o en la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
+          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de 4 núcleos para producción por host de sesión (multisesión)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Revisar la arquitectura de conectividad híbrida para el entorno local</t>
+          <t>Comprobar los límites de escalabilidad de AVD para el entorno</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>¿Qué tipo de conectividad híbrida? ¿Ruta exprés, VPN, NVA?</t>
+          <t xml:space="preserve">Es fundamental verificar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Evalúe a qué recursos necesitarán acceder los usuarios desde los grupos de hosts de AVD a las instalaciones locales</t>
+          <t>Determinar si los hosts de sesión requerirán GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda vpn / ER sea suficiente y que la latencia sea tolerable. </t>
+          <t xml:space="preserve">Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Revisar la topología de red de la zona de aterrizaje para el servicio AVD</t>
+          <t>Se recomienda usar SKU de máquina virtual capaces de aprovechar la característica de redes aceleradas en Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Revise o recomiende uno nuevo donde colocar los grupos de hosts AVD basados en CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Hoy en día, los sistemas operativos Windows Server son compatibles (consulte la lista en el artículo), en el futuro el sistema operativo cliente de Windows también puede incluirse. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la ubicación de la red virtual y la subred para varios grupos de hosts</t>
+          <t>Evaluar cuántos usuarios se conectarán a AVD y desde qué regiones</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que cada subred tendrá suficiente espacio para escalar el grupo de hosts AVD. Para diferentes grupos de hosts, se recomienda utilizar subredes separadas si es posible. </t>
+          <t xml:space="preserve">Para una planificación e implementación adecuadas, es importante evaluar el número máximo de usuarios y el promedio de sesiones simultáneas. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD? </t>
+          <t>Determinar si todos los usuarios tendrán el mismo conjunto de aplicaciones y/o diferentes configuraciones de grupo de hosts y/o imágenes de sistema operativo</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o NVA Firewall, NSG y/o Proxy. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD se encuentran aquí en https://aka.ms/AVDfirewall y aquí https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Asegúrese de revisar la lista completa de requisitos para el acceso a las URL AVD.</t>
+          <t xml:space="preserve">Es posible que se requieran varios grupos de hosts para admitir diferentes conjuntos de usuarios, se recomienda estimar cuántos serán necesarios. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
+          <t>Evaluar las dependencias externas para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles. </t>
+          <t>Se deben evaluar y revisar las dependencias de recursos externos al grupo de AVD, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN y/o Express Route, servicios externos y componentes de 3rd-party. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Revisar UDR para la subred del grupo de hosts AVD</t>
+          <t>Revisar el sistema operativo del cliente utilizado y el tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se puede aplicar UDR personalizado a la subred del grupo de hosts AVD, por ejemplo, para redirigir a Azure Firewall o NVA. En este caso, se recomienda revisar cuidadosamente para garantizar que se utilice la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR, luego el tráfico del plano de administración AVD se puede incluir fácilmente en la lista blanca. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
+          <t>Comprobar los requisitos de licencia</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Las direcciones URL requeridas para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad desde los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Los clientes que tienen la licencia adecuada para ejecutar cargas de trabajo de Windows Virtual Desktop son elegibles para aplicar una licencia de Windows a sus máquinas virtuales host de sesión y ejecutarlas sin pagar por otra licencia.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de la máquina virtual</t>
+          <t>Ejecute una prueba de concepto para probar la experiencia del usuario de extremo a extremo y verificar el impacto causado por la latencia de la red</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
+          <t xml:space="preserve">Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno PoC pequeño. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Anfitrión de la sesión</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
+          <t xml:space="preserve">Determinar si los usuarios accederán a AVD utilizando escritorios completos y/o aplicaciones remotas </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Una vez seleccionada la SKU de vm que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
+          <t xml:space="preserve">Determine si a los usuarios se les ofrecerán escritorios completos y/o grupos de aplicaciones remotas. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts de AVD</t>
+          <t xml:space="preserve">¿Todos los usuarios tendrán la misma configuración de RDP? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Las aplicaciones se pueden preinstalar en la/s imagen/es dorada/s, se pueden adjuntar mediante la función MSIX y AppAttach o distribuirse a los hosts después de la implementación del grupo utilizando métodos tradicionales de distribución de SW.</t>
+          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario o grupo.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estimar el número de imágenes doradas que se requerirán</t>
+          <t>Evaluar RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>¿Usarán el enmascaramiento de aplicaciones fslogix que se prestaría a una sola imagen, o imágenes múltiples con diferentes aplicaciones incorporadas: ¿qué es lo que requiere que se use más de una imagen?</t>
+          <t>RDP Shortpath para redes administradas es una característica de Azure Virtual Desktop que establece un transporte directo basado en UDP entre el cliente de Escritorio remoto y el host de sesión. La eliminación del relé adicional reduce el tiempo de ida y vuelta, lo que mejora la experiencia del usuario con aplicaciones y métodos de entrada sensibles a la latencia. Para admitir RDP Shortpath, el cliente de Azure Virtual Desktop necesita una línea de visión directa al host de sesión y debe ejecutar Windows 10 o Windows 7 y tener instalado el cliente de escritorio de Windows.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué imagen o imágenes del sistema operativo usará para la implementación del grupo de hosts</t>
+          <t>Determine en qué región o grupos de hosts AVD de Azure se implementarán.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué so invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
+          <t>AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, ¿determinar si existe un proceso de compilación automatizado?</t>
+          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si no existe nada, considere la posibilidad de usar Azure Image Builder para automatizar el proceso de compilación. </t>
+          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planee la conectividad necesaria. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, ¿existe un plan para organizar y gestionar el ciclo de vida de sus imágenes?</t>
+          <t>¿Evaluó la latencia entre la ubicación de los usuarios y la infraestructura de Azure AVD?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evalúe la Galería de proceso de Azure.</t>
+          <t xml:space="preserve">Ejecute la herramienta 'Windows Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, consulte las prácticas recomendadas para AVD sobre cómo crear una imagen maestra</t>
+          <t>Determinar la ubicación de metadatos para el servicio AVD</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay algunas prácticas recomendadas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia. </t>
+          <t xml:space="preserve">AVD almacena metadatos solo para ejecutar el servicio en ubicaciones geográficas específicas, determinar qué está disponible hoy y, si es adecuado, según los requisitos del cliente. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
+          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños de máquina virtual específicos en las regiones seleccionadas</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
+          <t xml:space="preserve">Compruebe si hay SKU de máquina virtual específicas, especialmente si necesita GPU o SKU de especificaciones altas y, finalmente, la disponibilidad de Azure NetApp Files si se usa. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Planificar/evaluar la estrategia de administración de la configuración del host de sesión AVD</t>
+          <t>Comprobar la disponibilidad de la zona de disponibilidad (AZ) en la región seleccionada</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de máquinas virtuales del grupo de hosts después de la implementación inicial, por ejemplo, SCCM, MEM/Intune, GPO, soluciones de terceros.</t>
+          <t>Consulte la sección BCDR para obtener más detalles.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
+          <t>Creación de al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Revise el artículo proporcionado y marque las características de OneDrive 'Redirección de carpetas conocidas' y 'Archivos onDemand' deben considerarse y, finalmente, adoptarse.</t>
+          <t xml:space="preserve">Se recomiendan los controladores de dominio de AD en Azure para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, para la integración de Azure NetApp Files y AD. ADC debe poder comunicarse con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe usar la conectividad local para llegar a los controladores de dominio de AD. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
+          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de revisar este artículo y usar la última versión, revise y evalúe las exclusiones de Teams para reducir el tamaño del perfil.</t>
+          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No use la misma cuenta/recurso compartido de almacenamiento que los contenedores de profile/Office </t>
+          <t>Revisar el GPO de dominio que se aplicará a la unidad organizativa y que afecta a las funcionalidades de la máquina virtual del grupo de hosts</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas/recursos compartidos de almacenamiento independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S de perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que esas opciones ofrecen el mejor valor entre el costo y la sobrecarga de administración. </t>
+          <t xml:space="preserve">Revise cuidadosamente y, finalmente, bloquee o filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Revisar las consideraciones de rendimiento para MSIX</t>
+          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>En el artículo al que se hace referencia, informamos de pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto de AVD, asegúrese de revisar cuidadosamente.</t>
+          <t xml:space="preserve">Se recomienda tener una cuenta dedicada específica con permisos específicos y sin la limitación predeterminada de 10 uniones. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
+          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios a los que se concederá acceso a cada grupo de aplicaciones del grupo de servidores host (DAG o RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MsiX app attach requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, para los hosts de sesión, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuenta de almacenamiento y de uso compartido de archivos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
+          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y replíquelos con ADC en Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
+          <t>Revisión de la directiva de expiración de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>El proveedor de software de 3ª parte debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
+          <t>Como parte del procedimiento para integrar el recurso compartido de archivos de Azure y la autenticación de Active Directory, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede elegir registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte Preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una antigüedad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
+          <t>Un inquilino de Azure Active Directory debe estar disponible con al menos una suscripción vinculada</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que debe deshabilitarse.</t>
+          <t>Una suscripción de Azure debe ser primaria al mismo inquilino de Azure AD, que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory o Azure AD DS.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Revisar la compatibilidad con sistemas operativos</t>
+          <t>Un bosque/dominio de Windows Server Active Directory está sincronizado con Azure Active Directory</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>Para aprovechar MSIX y App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10 Enterprise o Windows 10 Enterprise Multisesión, versión 2004 o posterior.</t>
+          <t>Puede configurarlo mediante Azure AD Connect (para organizaciones híbridas) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anfitrión de la sesión </t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar qué tipo de disco administrado se usará para los hosts de sesión  </t>
+          <t>Compruebe los requisitos de la cuenta de usuario para conectarse a Windows Virtual Desktop</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD estándar, SSD estándar o SSD premium, los discos efímeros no son compatibles, no se recomiendan los discos ultra. Se recomienda evaluar el disco Premium para el sistema operativo si la densidad de usuarios no es baja y si va a utilizar Cloud Cache. </t>
+          <t>(1) El usuario debe provenir del mismo Active Directory que está conectado a Azure AD. Windows Virtual Desktop no admite cuentas B2B o MSA. (2) El UPN que use para suscribirse a Windows Virtual Desktop debe existir en el dominio de Active Directory al que está unida la máquina virtual.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué solución de back-end de almacenamiento se usará para FSLogix Profile y Office Containers</t>
+          <t>Compruebe los requisitos de VM para los hosts de sesión AVD que se crearán</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, servidor de archivos basado en máquina virtual. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. NetApp solo suele ser necesario para entornos a gran escala o de alto rendimiento. </t>
+          <t>Las máquinas virtuales deben estar unidas a un dominio estándar o híbridas a AD. Las máquinas virtuales no se pueden unir a Azure AD.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la posibilidad de separar los contenedores de perfiles de los contenedores de Office</t>
+          <t xml:space="preserve">Antes de usar los Servicios de dominio de Azure Active Directory (AAD-DS) para AVD, asegúrese de revisar las limitaciones. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La recomendación de Escritorio virtual de Windows es usar el contenedor de perfiles sin contenedor de Office a menos que esté planeando escenarios específicos de continuidad del negocio y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Comparación de Servicios de dominio de Active Directory autoadministrados, Azure Active Directory y Servicios de dominio de Azure Active Directory administrados</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los límites de escalabilidad del almacenamiento para admitir los requisitos del grupo de hosts</t>
+          <t>Evaluar el requisito de la capacidad de escalado automático del grupo de hosts</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>Como punto de partida para estimar los requisitos de rendimiento del almacenamiento de contenedores de perfiles, recomendamos asumir 10 IOPS por usuario en el estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión.</t>
+          <t xml:space="preserve">La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de la máquina virtual del host de sesión. Puede usar la herramienta de escalado para programar máquinas virtuales para que se inicien y detengan en función de las horas comerciales pico y fuera de pico, escalar horizontalmente máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas de menor actividad, dejando en ejecución el número mínimo de máquinas virtuales host de sesión. Aún no está disponible para el tipo de grupo de hosts personales, se recomienda tener una configuración independiente para cada grupo de hosts. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Si se utiliza el almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
+          <t>Comprobar periódicamente las recomendaciones de Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>Si se requiere una segunda región para fines de recuperación ante desastres, verifique también la disponibilidad de NetApp allí.</t>
+          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar sus recursos de Azure para ofrecer confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles FSLogix deben estar en la misma ubicación del centro de datos.</t>
+          <t>Planeación de una estrategia de administración de actualizaciones de imágenes doradas</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
+          <t>Prepare una estrategia para administrar las actualizaciones de las imágenes doradas, por ejemplo, para aplicar revisiones de seguridad y/o actualizar las aplicaciones instaladas dentro de la imagen. Azure Image Builder Service es una solución de 1ª parte para automatizar la compilación y personalización de máquinas virtuales.Las plantillas ARM se pueden usar para crear nuevos hosts y, a continuación, retirar los antiguos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool El enfoque recomendado es crear un nuevo grupo en paralelo, más fácil de revertir, no utilizable para un grupo dedicadoRe-implementar y aumentar el número de máquinas virtuales con la plantilla ARM también es una opción viable. Los clientes también pueden querer utilizar los métodos de distribución de software existentes para actualizar la imagen sin volver a implementarla, por ejemplo, con SCCM o similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
+          <t>Planeación de una estrategia de actualización y revisión del host de sesión</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de configurar las siguientes exclusiones antivirus para los discos duros virtuales FSLogix Profile Container, como se documenta en el artículo al que se hace referencia.</t>
+          <t xml:space="preserve">Los clientes pueden tener varias opciones:- Microsoft Endpoint Configuration Manager, este artículo explica cómo configurar Microsoft Endpoint Configuration Manager para aplicar automáticamente actualizaciones a un host de Windows Virtual Desktop que ejecuta Windows 10 Enterprise multisesión: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que admite su sistema operativo.- Azure Update Management (Azure Automation), hoy no compatible con el sistema operativo cliente: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt se recomienda alejarse de una estrategia de revisión y pasar a una estrategia de recreación de imágenes si es posible. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
+          <t>Evaluar el requisito de un entorno canario de prueba AVD</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La configuración básica y recomendada predeterminada está aquí: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Consulte aquí el conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aquí para obtener una referencia completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Los grupos de servidores host son una colección de una o más máquinas virtuales idénticas dentro del entorno de Windows Virtual Desktop. Se recomienda encarecidamente crear un grupo de hosts de validación donde se apliquen primero las actualizaciones de servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o de no validación.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Comprobar el uso de conexiones simultáneas o múltiples al mismo perfil</t>
+          <t>Determinación de la estrategia de implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Se desaconsejan las conexiones simultáneas o múltiples en Windows Virtual Desktop. La práctica recomendada es crear una ubicación de perfil diferente para cada sesión (como grupo de hosts).</t>
+          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas de ARM, herramienta CLI de Azure, PowerShell, creación manual de máquinas virtuales con token de registro, Terraform, etc. Es importante adoptar método(s) adecuados/s para soportar la implementación automática a través de herramientas de automatización y CI/CD.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Revise las prácticas recomendadas y las consideraciones clave para el tamaño del almacenamiento de información</t>
+          <t>Activar máquinas virtuales regularmente cada 90 días para la actualización de tokens</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como estimación general, para ser validado en un entorno de prueba, para cada usuario se deben considerar primero de 5 a 15 IOPS, dependiendo de la carga de trabajo. Azure Files: IOPS premium máximas de 100 k por recurso compartido (máximo 100 TB) y hasta 5 Gbps con latencia de 3 ms. Tenga en cuenta cómo se aprovisiona Azure Files, es decir, IOPS estrictamente vinculadas t'o TAMAÑO aprovisionado. Capacidad de tamaño de ráfaga en algunos casos. Asegúrese de aprovisionar por adelantado más espacio del requerido para asegurarse de tener suficientes IOPS. NOTA: Azure Premium puede ser más barato que Standard porque no paga transacciones, luego debe tener en cuenta los detalles importantes. Azure NetApp Files: recuerde un máximo de 1000 DIRECCION IP conectadas, puede ajustar las IOPS sobre la marcha, capacidad aprovisionada mínima de 4 TB. </t>
+          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio Windows Virtual Desktop, el agente actualiza regularmente el token de la máquina virtual siempre que la máquina virtual está activa. El certificado para el token de registro es válido durante 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los procedimientos recomendados para Azure Files (si se usa)</t>
+          <t>Habilitación de la supervisión de Azure para AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t>Azure Monitor para Windows Virtual Desktop es un panel basado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Windows Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Windows Virtual Desktop para supervisar los entornos de Windows Virtual Desktop.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Compruebe las prácticas recomendadas para los archivos de NetApp (si se utilizan)</t>
+          <t>Habilitar y redirigir la configuración de diagnóstico para áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host al área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t xml:space="preserve">Windows Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas como muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se divide en las siguientes categorías: Administración, Fuente, Conexiones, Registro de host, Errores, Puntos de control. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
+          <t>Crear alertas en el almacenamiento del perfil para recibir alertas en caso de uso elevado y limitación</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se prevén contenedores de perfiles grandes y los clientes desean intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil FSLogix.</t>
+          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Si se utiliza FSLogix Cloud Cache, mueva el directorio Cache a la unidad temporal.</t>
+          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache utiliza el disco local como caché y puede generar mucha presión en el disco de la máquina virtual. Se recomienda aprovechar la potencia del disco de máquina virtual temporal (y conectado localmente), si es posible en función de la SKU de la máquina virtual. </t>
+          <t>Puede usar Azure Service Health para supervisar problemas de servicio y avisos de mantenimiento para Windows Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerle actualizado a medida que se resuelve el problema.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Revise el uso de la redirección FSLogix.</t>
+          <t>Revisar la arquitectura de conectividad híbrida para el entorno local</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen desde el contenedor de perfiles a la unidad C:. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno en el que se pretende aplicar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
+          <t>¿Qué tipo de conectividad híbrida? ¿Ruta Express, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de AD en la conexión de AD.</t>
+          <t>Evaluar qué recursos necesitarán los usuarios para acceder desde grupos de hosts AVD a las instalaciones</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred ANF y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
+          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda VPN/ER sea suficiente y que la latencia sea tolerable. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que los usuarios de AVD no tendrán privilegios de administrador local en los hosts de AVD. </t>
+          <t>Revisar la topología de red de la zona de aterrizaje para el servicio AVD</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>Le recomendamos que no conceda a sus usuarios acceso de administrador a los escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración como Microsoft Endpoint Manager. En un entorno de varias sesiones, le recomendamos que no permita que los usuarios instalen software directamente.</t>
+          <t>Revise o recomiende uno nuevo donde colocar grupos de hosts AVD basados en CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza la solución antivirus y antimalware</t>
+          <t>Evaluación de la ubicación de redes virtuales y subredes para varios grupos de servidores host</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint ahora admite Windows Virtual Desktop para Windows 10 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Asegúrese de que cada subred tenga suficiente espacio para escalar el grupo de hosts AVD. Para diferentes grupos de hosts, se recomienda usar subredes independientes si es posible. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se implementen las exclusiones AV adecuadas</t>
+          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que existan las siguientes exclusiones: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o NVA Firewall, NSG y/o Proxy. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD están aquí en https://aka.ms/AVDfirewall y aquí https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Asegúrese de revisar la lista completa de requisitos para el acceso a las URL de AVD.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Evaluar los requisitos de cifrado de disco para hosts AVD</t>
+          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con las claves administradas por Microsoft. El cifrado del disco del sistema operativo de la máquina virtual host es posible y compatible con ADE y DES: los datos de usuario sensibles y permanentes no deben almacenarse en el disco host de sesión, luego deben usarse solo si es estrictamente necesario por razones de cumplimiento. El cifrado del almacenamiento de FSLogix con Azure Files se puede realizar mediante SSE en Azure Storage.Para el cifrado de OneDrive, consulte este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Tenga en cuenta el uso de Azure Defender Endpoint para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>¿Necesita controlar/restringir la navegación por Internet del usuario desde los hosts de sesión AVD?</t>
+          <t>Revisar UDR para la subred del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario. </t>
+          <t xml:space="preserve">UDR personalizado se puede aplicar a la subred del grupo de hosts de AVD, por ejemplo, para redirigir a Azure Firewall o NVA. En este caso se recomienda revisar cuidadosamente para asegurarse de que se utiliza la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR, luego el tráfico del plano de administración de AVD se puede incluir fácilmente en la lista blanca. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Azure Security Center (ASC) para hosts de sesión AVD</t>
+          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda habilitar Azure Security Center Standard para suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento. Con Azure Security Center Standard es posible evaluar y administrar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD.</t>
+          <t>Las URL necesarias para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad de los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Revisar los GPO de Active Directory para proteger las sesiones RDP</t>
+          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de máquina virtual</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se debe utilizar, por ejemplo, para imponer el bloqueo del escritorio y la terminación de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse para proteger también los hosts AVD. </t>
+          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de MFA para usuarios de AVD</t>
+          <t xml:space="preserve">Asegúrese de que los usuarios de AVD no tengan privilegios de administrador local en los hosts AVD. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>Para obtener información y detalles adicionales, consulte este artículo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>Le recomendamos que no conceda a los usuarios acceso de administrador a escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración como Microsoft Endpoint Manager. En un entorno multisesión, le recomendamos que no permita que los usuarios instalen software directamente.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso del acceso condicional para los usuarios</t>
+          <t>Asegúrese de que se utiliza una solución antivirus y antimalware</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el acceso condicional le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno de Windows Virtual Desktop. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está utilizando.</t>
+          <t>Microsoft Defender para Endpoint ahora admite Windows Virtual Desktop para Windows 10 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el registro de diagnóstico y auditoría en el área de trabajo central de Log Analytics</t>
+          <t>Asegúrese de que las exclusiones AV adecuadas estén en su lugar</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habilitar la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Windows Virtual Desktop. Esto también es un requisito para eanble y utilizar la herramienta avD Monitoring. Muy recomendable para habilitar. </t>
+          <t>Asegúrese de que las siguientes exclusiones estén en su lugar: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD </t>
+          <t>Evaluar los requisitos de cifrado de disco para hosts AVD</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD usa controles de acceso basados en roles (RBAC) de Azure para asignar roles a usuarios y administradores. Estos roles dan permiso a los administradores para llevar a cabo ciertas tareas. Si se requiere la separación de tareas, Escritorio virtual de Windows tiene roles adicionales que le permiten separar los roles de administración para grupos de hosts, grupos de aplicaciones y áreas de trabajo. Esta separación le permite tener un control más granular sobre las tareas administrativas. Estos roles se nombran de conformidad con los roles estándar de Azure y la metodología de privilegios mínimos.</t>
+          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con claves administradas por Microsoft. El cifrado de disco del sistema operativo de la máquina virtual host es posible y compatible con ADE y DES: los datos de usuario sensibles y peristentes no deben almacenarse en el disco host de sesión, entonces deben usarse solo si es estrictamente necesario por razones de cumplimiento. El cifrado del almacenamiento FSLogix mediante Azure Files se puede realizar mediante SSE en Azure Storage.Para el cifrado de OneDrive, consulte este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Revise todas las prácticas recomendadas de seguridad para el entorno AVD</t>
+          <t>¿Necesita controlar/restringir la navegación del usuario por Internet desde los hosts de sesión AVD?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un conjunto completo de mejores prácticas y recomendaciones de seguridad están contenidas en el artículo referenciado, se recomienda revisar. </t>
+          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Habilitar la supervisión de Azure para AVD</t>
+          <t>Evaluación del uso de Azure Security Center (ASC) para hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor para Windows Virtual Desktop es un panel creado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Windows Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Windows Virtual Desktop para supervisar los entornos de Windows Virtual Desktop.</t>
+          <t>Se recomienda habilitar Azure Security Center Standard para suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento. Con Azure Security Center Standard es posible evaluar y administrar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Habilitar y redirigir la configuración de diagnóstico de áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host al área de trabajo de Log Analytics</t>
+          <t>Revisar los GPO de Active Directory para proteger las sesiones RDP</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas, al igual que muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se encuentra en las siguientes categorías: Administración, Feed, Conexiones, Registro de host, Errores, Puntos de control. </t>
+          <t xml:space="preserve">Debe utilizarse, por ejemplo, para imponer el bloqueo del escritorio y la terminación de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse para proteger también los hosts AVD. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Cree alertas sobre el almacenamiento de perfiles que se van a alertar en caso de alto uso y limitación</t>
+          <t>Evaluar el uso de MFA para usuarios de AVD</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>Para obtener detalles e información adicionales, consulte este artículo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
+          <t>Evaluar el uso del acceso condicional para los usuarios</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Puede usar Azure Service Health para supervisar los problemas de servicio y los avisos de mantenimiento de Windows Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerlo actualizado a medida que se resuelve el problema.</t>
+          <t>La habilitación del acceso condicional le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno de Windows Virtual Desktop. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está usando.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de la capacidad de escalado automático del grupo de hosts</t>
+          <t>Habilitar el registro de diagnóstico y auditoría en el área de trabajo central de Log Analytics</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de su máquina virtual de host de sesión. Puede usar la herramienta de escalado para programar el inicio y la detención de máquinas virtuales en función de las horas laborables pico y fuera de hora punta, escalar horizontalmente las máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas valle, dejando el número mínimo de máquinas virtuales host de sesión en ejecución. Todavía no está disponible para el tipo de grupo de host personal, se recomienda tener una configuración independiente para cada grupo de hosts. </t>
+          <t xml:space="preserve">Habilitar la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Windows Virtual Desktop. Este es también un requisito para eanble y utilizar la herramienta de monitoreo AVD. Muy recomendable para habilitar. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Compruebe periódicamente las recomendaciones de Azure Advisor para AVD</t>
+          <t xml:space="preserve">Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar los recursos de Azure en cuanto a confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
+          <t>AVD usa controles de acceso basados en rol (RBAC) de Azure para asignar roles a usuarios y administradores. Estos roles dan permiso a los administradores para llevar a cabo ciertas tareas. Si se requiere separación de tareas, Windows Virtual Desktop tiene funciones adicionales que permiten separar las funciones de administración para grupos host, grupos de aplicaciones y áreas de trabajo. Esta separación le permite tener un control más granular sobre las tareas administrativas. Estos roles se denominan de conformidad con los roles estándar y la metodología de privilegios mínimos de Azure.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Planificar una estrategia de gestión de actualización de imágenes doradas</t>
+          <t>Revisar todas las prácticas recomendadas de seguridad para el entorno AVD</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare una estrategia para administrar las actualizaciones de las imágenes doradas, por ejemplo, para aplicar revisiones de seguridad y/o actualizar las aplicaciones instaladas dentro de la imagen. Azure Image Builder Service es una solución de 1.ª parte para automatizar la compilación y la personalización de máquinas virtuales.Las plantillas de ARM se pueden usar para crear nuevos hosts y, a continuación, retirar los antiguos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool El enfoque recomendado es crear un nuevo grupo en paralelo, más fácil de revertir, no utilizable para grupos dedicados. Es posible que los clientes también deseen utilizar los métodos de distribución de software existentes para actualizar la imagen sin volver a implementarla, para exampel con SCCM o similar.</t>
+          <t xml:space="preserve">Un conjunto completo de mejores prácticas de seguridad y recomendaciones se encuentran en el artículo al que se hace referencia, se recomienda revisar. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Planeación de una estrategia de parches y actualizaciones de Host de sesión</t>
+          <t>Determinar qué solución back-end de almacenamiento se usará para FSLogix Profile y Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los clientes pueden tener varias opciones:- Microsoft Endpoint Configuration Manager, este artículo explica cómo configurar Microsoft Endpoint Configuration Manager para aplicar automáticamente actualizaciones a un host de Windows Virtual Desktop que ejecuta Windows 10 Enterprise multisesión: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª parte que admite su sistema operativo.- Azure Update Management (Azure Automation), hoy no compatible con el sistema operativo cliente: se recomienda https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt alejarse de una estrategia de aplicación de revisiones y pasar a una estrategia de creación de imágenes si es posible. </t>
+          <t xml:space="preserve">Azure NetApp Files, Azure Files, servidor de archivos basado en VM. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. Por lo general, NetApp solo se requiere para entornos de gran escala / alto rendimiento. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito para un entorno canario de prueba AVD</t>
+          <t>Evaluar la posibilidad de separar los contenedores de perfiles de los contenedores de Office</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Los grupos de hosts son una colección de una o más máquinas virtuales idénticas dentro del entorno de Windows Virtual Desktop. Le recomendamos encarecidamente que cree un grupo de hosts de validación donde se apliquen primero las actualizaciones del servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o no de validación.</t>
+          <t xml:space="preserve">La recomendación de Windows Virtual Desktop es usar el contenedor de perfiles sin el contenedor de Office, a menos que esté planeando escenarios específicos de continuidad empresarial y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determinar la estrategia de implementación del grupo de hosts</t>
+          <t>Verificar los límites de escalabilidad del almacenamiento para admitir los requisitos del grupo de hosts</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas arm, herramienta cli de Azure, Powershell, creación manual de máquinas virtuales con token de registro, Terraform, etc. Es importante adoptar métodos adecuados para admitir la implementación automática a través de herramientas de automatización y CI/CD.</t>
+          <t>Como punto de partida para estimar los requisitos de rendimiento de almacenamiento de contenedores de perfiles, se recomienda asumir 10 IOPS por usuario en estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Encienda las máquinas virtuales regularmente cada 90 días para actualizar los tokens</t>
+          <t>Si se utiliza el almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio De escritorio virtual de Windows, el agente actualiza regularmente el token de la máquina virtual cada vez que la máquina virtual está activa. El certificado para el token de registro es válido por 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
+          <t>Si se requiere una segunda región para fines de recuperación ante desastres, verifique también la disponibilidad de NetApp.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determinar el SLA de alta disponibilidad esperado para aplicaciones/escritorios publicados a través de AVD</t>
+          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles FSLogix deben estar en la misma ubicación del centro de datos.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">El plan de control avD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr al menos un 99,9 % de disponibilidad para las direcciones URL del servicio Windows Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. Los recursos/servicios dependientes y la disponibilidad de la infraestructura también deben considerarse para satisfacer adecuadamente los requisitos globales de alta disponibilidad. </t>
+          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la región de recuperación ante desastres geográficos para grupos de hosts AVD</t>
+          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>El modelo Active-Active' se puede lograr con múltiples grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar/replicar en absoluto. 'Activo-pasivo' se puede lograr mediante Azure Site Recovery (ASR) o la implementación del grupo bajo demanda con un mecanismo automatizado.</t>
+          <t>Asegúrese de configurar las siguientes exclusiones antivirus para los discos duros virtuales del contenedor de perfiles FSLogix, como se documenta en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Separe las aplicaciones críticas en diferentes grupos de hosts AVD</t>
+          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Antes de abordar la planificación y el diseño de BCDR de Windows Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
+          <t xml:space="preserve">La configuración básica y recomendada predeterminada está aquí: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Consulte aquí el conjunto básico: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aquí para una referencia completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Planeación de la mejor opción de resiliencia para la implementación de AVD Host Pool</t>
+          <t>Comprobar el uso de conexiones simultáneas o múltiples al mismo perfil</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? ¿Seleccionó el nivel de resistencia adecuado para las máquinas virtuales del grupo de hosts (conjunto de disponibilidad frente a zonas de disponibilidad)? ¿Es consciente de las implicaciones en ha SLA y los límites de escalabilidad que vienen con AS o AZ? ? Actualmente puede implementar 399 máquinas virtuales por implementación de plantilla de ARM de Windows Virtual Desktop sin conjuntos de disponibilidad o 200 máquinas virtuales por conjunto de disponibilidad. Puede aumentar el número de máquinas virtuales por implementación desactivando los conjuntos de disponibilidad en la plantilla arm o en la inscripción del grupo de hosts de Azure Portal. La implementación de AZ ahora es posible, una AZ a la vez en este momento, necesita crear manualmente una fracción de máquinas virtuales en cada AZ deseada. </t>
+          <t>Se desaconsejan las conexiones simultáneas o múltiples en Windows Virtual Desktop. La práctica recomendada es crear una ubicación de perfil diferente para cada sesión (como grupo de servidores).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de hacer una copia de seguridad de los hosts de sesión AVD</t>
+          <t>Revisar las mejores prácticas y las consideraciones clave para el dimensionamiento del almacenamiento</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copia de seguridad de Azure también se puede usar para proteger las máquinas virtuales del grupo de hosts, esta práctica es compatible, incluso si las máquinas virtuales del grupo de hosts no tienen estado. Esta opción podría considerarse para los grupos de hosts personales. </t>
+          <t xml:space="preserve">Como estimación general, para ser validada en un entorno de prueba, para cada usuario se deben considerar primero de 5 a 15 IOPS, dependiendo de la carga de trabajo. Azure Files: Premium max 100k IOPS por recurso compartido (máx. 100TB) y hasta 5Gbps con latencia de 3ms. Tenga en cuenta cómo se aprovisiona Azure Files, es decir, IOPS estrictamente vinculadas a SIZE aprovisionado. Capacidad de dimensionamiento de ráfaga en algunos casos. Asegúrese de aprovisionar por adelantado más espacio del necesario para asegurarse de tener suficientes IOPS. NOTA: Azure Premium puede ser más barato que Standard porque no paga transacciones, luego detalles importantes a tener en cuenta. Azure NetApp Files: recuerde un máximo de 1000 direcciones IP conectadas, puede ajustar IOPS sobre la marcha, capacidad aprovisionada mínima de 4 TB. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Evaluar qué datos deben protegerse dentro de los contenedores de perfil y de oficina</t>
+          <t>Compruebe los procedimientos recomendados para Azure Files (si se usa)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es posible que no todos los datos dentro de los perfiles de usuario de FSLogix merezcan protección contra desastres. Además, si se usa almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo en caché). </t>
+          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Cree una estrategia de protección de copia de seguridad para contenedores de perfiles y de Office</t>
+          <t>Compruebe las prácticas recomendadas para los archivos de NetApp (si se utilizan)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Prevenir la pérdida de datos para datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos de perfil de usuario y/o contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos de los usuarios. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de perfiles y contenedores de Office cuando se almacenan en los niveles Standard y Premium de Azure Files. Las instantáneas y directivas de Azure NetApp Files se pueden usar para Azure NetApp Files (todos los niveles).</t>
+          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Evalúe los requerimientos de replicación y la resiliencia del almacenamiento de información de Profile Container para fines de BCDR</t>
+          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>En AVD, se pueden utilizar múltiples mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix:? Patrón de perfil n.º 1: ¿Mecanismos nativos de replicación de almacenamiento de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files o sincronización de Azure Files para servidores de archivos basados en máquinas virtuales? Se recomienda usar almacenamiento replicado en zona (ZRS) o almacenamiento replicado geográfico (GRS) para Azure Files. LRS con resiliencia solo local se puede usar si no se requiere protección de zona / región. Nota : Azure Files Share Standard es LRS/ ZRS / GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiteN LRS / ZRS. ? Patrón de perfil # 2: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache debe usarse solo cuando:? Perfil de usuario o contenedores de Office La disponibilidad de datos requerida SLA de alta disponibilidad es crítica y debe ser resistente a los errores de la región. La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con la compatibilidad con archivos grandes habilitada, GRS no está disponible. Cuando se requiere replicación entre almacenamiento de información dispar.? Patrón de perfil # 3: Solo configure la recuperación ante desastres geográficos para los datos de la aplicación y no para los contenedores de datos / perfiles de usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de RECUPERACIÓN integrado.</t>
+          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se anticipan contenedores de perfiles grandes y los clientes quieren intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil de FSLogix.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
+          <t>Si se utiliza FSLogix Cloud Cache, mueva el directorio Cache a la unidad temporal.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files es esencialmente LRS (almacenamiento replicado localmente), por lo que debe diseñar algo más si desea replicación entre regiones. La recomendación para cada región en este momento es NetApp Cloud Sync, que se replica en otra región de Azure (y en NetApp Volume). Copia de seguridad: las copias de seguridad son manejadas por instantáneas, pero no son automáticas, deben programarse mediante políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Hay un límite máximo de instantáneas (255) por volumen como se documenta aquí: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">Cloud Cache utiliza el disco local como caché y puede generar mucha presión en el disco de la máquina virtual. Se recomienda aprovechar la potencia del disco de máquina virtual temporal (y conectado localmente), si es posible en función de la SKU de máquina virtual. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Revisar la estrategia de recuperación ante desastres de Azure Files</t>
+          <t>Revise el uso de la redirección FSLogix.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres geográficos: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con grandes recursos compartidos, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica, al usar Azure File Share Premium, se debe evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) 'en la región'. Copia de seguridad: Copia de seguridad de Azure es totalmente compatible con Azure File Share todos los SKU y es la solución recomendada para proteger los contenedores de perfiles. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos de perfil de usuario y/o contenedores de Office.</t>
+          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen fuera del contenedor de perfiles a la unidad C:. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno donde se pretende implementar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependencias</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Planeación de la disponibilidad entre regiones de Golden Image</t>
+          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de AD en la conexión de AD.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupo de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso en caso de un desastre mayor. El servicio Galería de procesos de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
+          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred ANF y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependencias</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe las dependencias de infraestructura y aplicaciones </t>
+          <t>Habilite SMB multicanal cuando use un recurso compartido de archivos premium para hospedar contenedores de perfiles FSLogix.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios de la infraestructura AVD necesitan acceso a los recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar y evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben tenerse en cuenta para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
+          <t>SMB Multichannel permite a los clientes utilizar múltiples conexiones de red que proporcionan un mayor rendimiento al tiempo que reducen el costo de propiedad. El aumento del rendimiento se logra mediante la agregación de ancho de banda en varias NIC y el uso de la compatibilidad con Receive Side Scaling (RSS) para que las NIC distribuyan la carga de E/S entre varias CPU.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Host de sesión </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determinar qué tipo de disco administrado se utilizará para los hosts de sesión  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HDD estándar, SSD estándar o SSD premium, discos efímeros no son compatibles, no se recomiendan discos Ultra. Se recomienda evaluar Premium para el disco del sistema operativo si la densidad de usuarios no es baja y si va a utilizar Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha analizado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/spreadsheet/avd_checklist.es.xlsx
+++ b/spreadsheet/avd_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de Azure Virtual Desktop</t>
+          <t>Azure Virtual Desktop Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determinar en qué región o regiones de Azure se implementarán los grupos de hosts AVD</t>
+          <t>Determinar el SLA de alta disponibilidad esperado para aplicaciones o escritorios publicados a través de AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente. </t>
+          <t xml:space="preserve">El plan de control AVD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr una disponibilidad mínima del 99,9 % para las direcciones URL del servicio Windows Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. También se debe considerar la disponibilidad de recursos/servicios dependientes y de infraestructura para satisfacer adecuadamente los requisitos globales de alta disponibilidad. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
+          <t>Evaluar la región de recuperación ante desastres geográficos para grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planifique la conectividad necesaria. </t>
+          <t>El modelo Active-Active' se puede lograr con varios grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar / replicar en absoluto. "Activo-pasivo" se puede lograr mediante Azure Site Recovery (ASR) o la implementación de grupos a petición con un mecanismo automatizado.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>¿Evaluó la latencia entre la ubicación de los usuarios y la infraestructura de Azure AVD?</t>
+          <t>Separar las aplicaciones críticas en diferentes grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ejecute la herramienta 'Windows Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima. </t>
+          <t>Antes de abordar la planeación y el diseño de BCDR de Windows Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determinar la ubicación de los metadatos para el servicio AVD</t>
+          <t>Planeación de la mejor opción de resistencia para la implementación del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD almacena metadatos solo para ejecutar el servicio en ubicaciones geográficas específicas, determinar qué está disponible hoy en día y si es adecuado en función de los requisitos del cliente. </t>
+          <t xml:space="preserve">? ¿Seleccionó el nivel de resistencia adecuado para las máquinas virtuales del grupo de hosts (conjunto de disponibilidad frente a zonas de disponibilidad)? ¿Conoce las implicaciones en el SLA de alta disponibilidad y los límites de escalabilidad que vienen con AS o AZ? ? Actualmente puede implementar 399 máquinas virtuales por implementación de plantilla ARM de escritorio virtual de Windows sin conjuntos de disponibilidad o 200 máquinas virtuales por conjunto de disponibilidad. Puede aumentar el número de máquinas virtuales por implementación desactivando los conjuntos de disponibilidad en la plantilla de ARM o en la inscripción del grupo de hosts de Azure Portal. Ahora es posible implementar AZ, una AZ a la vez en este momento, necesita crear manualmente una fracción de máquinas virtuales en cada AZ deseada. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños de máquina virtual específicos en las regiones seleccionadas</t>
+          <t>Evaluar el requisito de copia de seguridad de los hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compruebe si hay SKU de vm específicas, especialmente si necesita GPU o SKU de especificaciones altas y, finalmente, disponibilidad de Azure NetApp Files si se usa. </t>
+          <t xml:space="preserve">Copia de seguridad de Azure también se puede usar para proteger máquinas virtuales del grupo de hosts, esta práctica es compatible, incluso si las máquinas virtuales del grupo de hosts no tienen estado. Esta opción podría considerarse para grupos de hosts personales. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Dependencias</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Comprobar la disponibilidad de la zona de disponibilidad (AZ) en la región seleccionada</t>
+          <t>Planeación de la disponibilidad de Golden Image entre regiones</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Consulte la sección BCDR para obtener más detalles.</t>
+          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupos de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso si se trata de un desastre importante. El servicio Galería de proceso de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Dependencias</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Evalúe cuántos usuarios se conectarán a AVD y desde qué regiones</t>
+          <t xml:space="preserve">Evaluar las dependencias de infraestructura y aplicaciones </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para una planificación e implementación adecuadas, es importante evaluar el número máximo de usuarios y el promedio de sesiones simultáneas. </t>
+          <t>Si los usuarios de la infraestructura AVD necesitan acceso a recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben considerarse para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determinar si todos los usuarios tendrán el mismo conjunto de aplicaciones y/o diferentes configuraciones de grupo de hosts y/o imágenes del sistema operativo</t>
+          <t>Evaluar qué datos deben protegerse dentro de los contenedores de perfil y oficina</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools puede ser necesario para admitir diferentes conjuntos de usuarios, se recomienda estimar cuántos serán necesarios. </t>
+          <t xml:space="preserve">No todos los datos dentro de los perfiles de usuario de FSLogix pueden merecer protección contra desastres. Además, si se utiliza almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo caché). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Evaluar dependencias externas para cada grupo de hosts</t>
+          <t>Crear una estrategia de protección de copia de seguridad para contenedores de perfiles y Office</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Las dependencias de recursos externos al grupo de AVD deben evaluarse y revisarse, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN y/o Express Route, servicios externos y componentes de terceros. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
+          <t>Prevenir la pérdida de datos para los datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos del usuario. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de contenedores de Office y perfiles cuando se almacenan en los niveles Standard y Premium de Azure Files. Azure NetApp Files Snapshots and Policies se puede usar para Azure NetApp Files (todos los niveles).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Revisar el sistema operativo cliente utilizado y el tipo de cliente AVD</t>
+          <t>Evaluar los requerimientos de replicación y la resiliencia del almacenamiento de almacenamiento de información de contenedores de perfiles para fines de BCDR</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
+          <t>En AVD, se pueden usar múltiples mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix: Patrón de perfil #1: ¿Mecanismos de replicación de almacenamiento nativos de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files o Azure Files Sync para servidores de archivos basados en máquinas virtuales? Se recomienda usar el almacenamiento replicado en zona (ZRS) o el almacenamiento con replicación geográfica (GRS) para Azure Files. LRS con resistencia solo local se puede usar si no se requiere protección de zona/región. NOTA: Azure Files Share Standard es LRS/ZRS/GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiten LRS/ZRS. ? Patrón de perfil # 2: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache solo debe usarse cuando:? Perfil de usuario o contenedores de Office disponibilidad de datos requeridos SLA de alta disponibilidad es crítico y debe ser resistente a errores de región. La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con compatibilidad con archivos grandes habilitada, GRS no está disponible. Cuando se requiere replicación entre almacenamiento de información dispares. Patrón de perfil # 3: Solo configure la recuperación geográfica ante desastres para los datos de la aplicación y no para los contenedores de datos / perfiles del usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de DR incorporado.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de licencia</t>
+          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Los clientes que tienen la licencia adecuada para ejecutar cargas de trabajo de Windows Virtual Desktop son elegibles para aplicar una licencia de Windows a sus máquinas virtuales de host de sesión y ejecutarlas sin pagar por otra licencia.</t>
+          <t>Recuperación ante desastres geográfica: Azure NetApp Files es esencialmente LRS (almacenamiento replicado localmente), entonces necesita diseñar algo más si desea la replicación entre regiones. La recomendación para la multiregión en este momento es Cloud Sync de NetApp, replicando en otra región de Azure (y NetApp Volume). Copia de seguridad: Las copias de seguridad son manejadas por instantáneas, pero no son automáticas, deben programarse mediante políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Hay un límite máximo de instantáneas (255) por volumen, como se documenta aquí: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Ejecute un PoC para probar la experiencia del usuario de extremo a extremo y comprobar el impacto causado por la latencia de la red</t>
+          <t>Revisión de la estrategia de recuperación ante desastres de Azure Files</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno poC pequeño. </t>
+          <t>Recuperación ante desastres geográfica: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con recursos compartidos grandes, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica, al usar Azure File Share Premium, se debe evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) "en la región". Copia de seguridad: Azure Backup es totalmente compatible con Azure File Share todos los SKU y es la solución recomendada para proteger los contenedores de perfiles. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar si los usuarios accederán a AVD utilizando escritorios completos y/o aplicaciones remotas </t>
+          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine si a los usuarios se les ofrecerán escritorios completos y/o grupos de aplicaciones remotas. </t>
+          <t>Las aplicaciones se pueden preinstalar en la(s) imagen(es) dorada, se pueden adjuntar utilizando la función MSIX &amp; AppAttach o distribuyendo a hosts después de la implementación del grupo utilizando métodos tradicionales de distribución de SW.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Todos los usuarios tendrán la misma configuración de RDP? </t>
+          <t>Estimar el número de imágenes doradas que se requerirán</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario / grupo.</t>
+          <t>¿Usarán el enmascaramiento de aplicaciones fslogix que se prestaría a una sola imagen, o múltiples imágenes con diferentes aplicaciones incorporadas: ¿qué es lo que requiere que se use más de una imagen?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evaluar RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
+          <t>Determinar qué imagenes del sistema operativo usará para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RDP Shortpath para redes administradas es una característica de Azure Virtual Desktop que establece un transporte directo basado en UDP entre el cliente de Escritorio remoto y el host de sesión. La eliminación del relé adicional reduce el tiempo de ida y vuelta, lo que mejora la experiencia del usuario con aplicaciones sensibles a la latencia y métodos de entrada. Para admitir RDP Shortpath, el cliente de Azure Virtual Desktop necesita una línea de visión directa al host de sesión y debe ejecutar Windows 10 o Windows 7 y tener instalado el cliente de escritorio de Windows.</t>
+          <t>Determine qué SO invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determinar el tipo de grupo de hosts que se va a usar</t>
+          <t>Si se va a utilizar una imagen personalizada, determine si existe un proceso de compilación automatizado.</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Compartido/Agrupado o Dedicado/Personal</t>
+          <t xml:space="preserve">Si no existe nada, considere la posibilidad de usar Azure Image Builder para automatizar el proceso de compilación. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Para el tipo de grupo de hosts personales, decida el tipo de asignación</t>
+          <t>Si se va a utilizar una imagen personalizada, ¿existe un plan para organizar y gestionar el ciclo de vida de las imágenes?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es adecuada para el escenario en cuestión.</t>
+          <t>Evalúe la Galería de proceso de Azure.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para el tipo de grupo de hosts agrupados, decida el método de equilibrio de carga</t>
+          <t>Si se va a utilizar una imagen personalizada, consulte las prácticas recomendadas para AVD sobre cómo crear una imagen maestra</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique cuál usar y las opciones disponibles, tenga en cuenta que si se usará el escalado automático, lo configura en amplitud primero. </t>
+          <t xml:space="preserve">Hay algunas mejores prácticas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes que se van a implementar </t>
+          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Según sus criterios de selección, ¿cuántos grupos de hosts necesitaría? Usted debe considerar tener varios si:? ¿Múltiples imágenes del sistema operativo? ¿Varias regiones? ¿Se requiere un HW diferente? ¿Diferente tipo de grupo de hosts (compartido vs. personal)? ¿Diferentes requisitos de usuario y SLA (usuarios principales, ejecutivos, trabajadores de Oficina vs. desarrolladores, etc.)? Diferentes configuraciones de RDP (aplicadas en el nivel del grupo de hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número requerido de máquinas virtuales en el grupo de hosts que superan las capacidades máximas</t>
+          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Ejecutar la prueba de rendimiento de la carga de trabajo para determinar la mejor SKU de máquina virtual de Azure y el tamaño que se debe usar (determinar el número de hosts por grupo)</t>
+          <t>Planificar/evaluar la estrategia de gestión de la configuración del host de sesión AVD</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de 4 núcleos para producción por host de sesión (multisesión)</t>
+          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de la máquina virtual del grupo de hosts después de la implementación inicial, por ejemplo, SCCM, MEM/Intune, GPO, soluciones de 3rd-party.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verificar los límites de escalabilidad de AVD para el entorno</t>
+          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es fundamental verificar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. </t>
+          <t>Revise el artículo proporcionado y marque 'Redirección de carpetas conocidas' y 'Archivos a petición' Las características de OneDrive deben considerarse y, finalmente, adoptarse.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determinar si los hosts de sesión requerirán GPU</t>
+          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia. </t>
+          <t>Asegúrese de revisar este artículo y usar la versión más reciente, revisar y evaluar las exclusiones de Teams para reducir el tamaño del perfil.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda usar SKU de máquina virtual capaces de aprovechar la característica de redes aceleradas en Azure.</t>
+          <t xml:space="preserve">No use la misma cuenta/recurso compartido de almacenamiento que los contenedores de perfil/Office </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Hoy en día, el sistema operativo Windows Server es compatible (consulte la lista en el artículo), en el futuro el sistema operativo cliente de Windows también puede incluirse. </t>
+          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas de almacenamiento/recursos compartidos independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S del perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que estas opciones ofrecen el mejor valor entre costo y gastos generales de administración. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Un inquilino de Azure Active Directory debe estar disponible con al menos una suscripción vinculada</t>
+          <t>Revisar las consideraciones de rendimiento para MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Una suscripción de Azure debe ser parentesca al mismo inquilino de Azure AD, que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory o Azure AD DS.</t>
+          <t>En el artículo al que se hace referencia, informamos pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto AVD, asegúrese de revisarlo cuidadosamente.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Un bosque/dominio de Windows Server Active Directory está sincronizado con Azure Active Directory</t>
+          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Puede configurarlo mediante Azure AD Connect (para organizaciones híbridas) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube).</t>
+          <t>La conexión de la aplicación MSIX requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuentas de almacenamiento y permisos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de la cuenta de usuario para conectarse a Windows Virtual Desktop</t>
+          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) El usuario debe provenir del mismo Active Directory que está conectado a Azure AD. Windows Virtual Desktop no admite cuentas B2B o MSA. (2) El UPN que usa para suscribirse a Windows Virtual Desktop debe existir en el dominio de Active Directory al que está unida la máquina virtual.</t>
+          <t>El proveedor de software de 3rd party debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de la máquina virtual para los hosts de sesión AVD que se crearán</t>
+          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales deben estar unidas a un dominio estándar o híbridas unidas a AD. Las máquinas virtuales no se pueden unir a Azure AD.</t>
+          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que debe deshabilitarse.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>EA962A15-9394-46da-A7CC-3923266B2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar los Servicios de dominio de Azure Active Directory (AAD-DS) para AVD, asegúrese de revisar las limitaciones. </t>
+          <t>Revisar la compatibilidad con sistemas operativos</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Comparar los Servicios de dominio de Active Directory autoadministrados, Azure Active Directory y los Servicios de dominio de Azure Active Directory administrados</t>
+          <t>Para aprovechar MSIX &amp; App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10 Enterprise o Windows 10 Enterprise Multi-session, versión 2004 o posterior.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Host de sesión</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Crear al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts de AVD</t>
+          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomiendan los controladores de dominio de AD en Azure para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, de Azure NetApp Files y la integración de AD. ADC debe poder hablar con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe utilizar la conectividad local para llegar a los controladores de dominio de AD. </t>
+          <t>Una vez seleccionada la SKU de máquina virtual que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
+          <t>Determinación del tipo de grupo de hosts que se va a usar</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
+          <t>Compartido/Agrupado o Dedicado/Personal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Revisar el GPO de dominio que se aplicará a la unidad organizativa y que afectará a las funcionalidades de la máquina virtual del grupo de hosts</t>
+          <t>Para el tipo de grupo de hosts personales, decida el tipo de asignación</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise detenidamente y, finalmente, bloquee/filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
+          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es apropiada para el escenario en cuestión.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
+          <t>Para Tipo de grupo de hosts agrupados, decida el método de equilibrio de carga</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda tener una cuenta dedicada específica con permisos específicos y sin la limitación predeterminada de 10 uniones. </t>
+          <t xml:space="preserve">Compruebe cuál usar y las opciones disponibles, tenga en cuenta que si se utilizará el escalado automático, lo establece en amplitud primero. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios al que se concederá acceso a cada grupo de aplicaciones de grupo de hosts (DAG o RAG)</t>
+          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes para implementar </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y reprodúzcalos con ADC en Azure AD. </t>
+          <t>Según sus criterios de selección, ¿cuántos grupos de anfitriones necesitaría? Deberías considerar tener varios si:? ¿Múltiples imágenes del sistema operativo? ¿Varias regiones? ¿Se requiere un HW diferente? ¿Diferentes tipos de grupo de hosts (compartido vs. personal)? ¿Diferentes requisitos de usuario y SLA (usuarios principales, ejecutivos, trabajadores de oficina frente a desarrolladores, etc.)? Diferentes configuraciones de RDP (aplicadas a nivel de grupo de hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número requerido de máquinas virtuales en el grupo de hosts que supera las capacidades máximas</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Revisar la directiva de caducidad de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
+          <t>Ejecute una prueba de rendimiento de carga de trabajo para determinar el mejor SKU de máquina virtual de Azure y el tamaño que se debe usar (determinar el número de hosts por grupo)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Como parte del procedimiento para integrar Azure File Share y Active Directory authenticaton, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede optar por registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una edad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o en la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
+          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de 4 núcleos para producción por host de sesión (multisesión)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Revisar la arquitectura de conectividad híbrida para el entorno local</t>
+          <t>Comprobar los límites de escalabilidad de AVD para el entorno</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>¿Qué tipo de conectividad híbrida? ¿Ruta exprés, VPN, NVA?</t>
+          <t xml:space="preserve">Es fundamental comprobar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Evalúe a qué recursos necesitarán acceder los usuarios desde los grupos de hosts de AVD a las instalaciones locales</t>
+          <t>Determinar si los hosts de sesión requerirán GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda vpn / ER sea suficiente y que la latencia sea tolerable. </t>
+          <t xml:space="preserve">Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Revisar la topología de red de la zona de aterrizaje para el servicio AVD</t>
+          <t>Se recomienda usar SKU de máquina virtual capaces de aprovechar la característica de redes aceleradas en Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Revise o recomiende uno nuevo donde colocar los grupos de hosts AVD basados en CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Hoy en día, los sistemas operativos Windows Server son compatibles (consulte la lista en el artículo), en el futuro el sistema operativo cliente de Windows también puede incluirse. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la ubicación de la red virtual y la subred para varios grupos de hosts</t>
+          <t>Evaluar cuántos usuarios se conectarán a AVD y desde qué regiones</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que cada subred tendrá suficiente espacio para escalar el grupo de hosts AVD. Para diferentes grupos de hosts, se recomienda utilizar subredes separadas si es posible. </t>
+          <t xml:space="preserve">Para una planificación e implementación adecuadas, es importante evaluar el número máximo de usuarios y el promedio de sesiones simultáneas. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD? </t>
+          <t>Determinar si todos los usuarios tendrán el mismo conjunto de aplicaciones y/o diferentes configuraciones de grupo de hosts y/o imágenes de sistema operativo</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o NVA Firewall, NSG y/o Proxy. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD se encuentran aquí en https://aka.ms/AVDfirewall y aquí https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Asegúrese de revisar la lista completa de requisitos para el acceso a las URL AVD.</t>
+          <t xml:space="preserve">Es posible que se requieran varios grupos de hosts para admitir diferentes conjuntos de usuarios, se recomienda estimar cuántos serán necesarios. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
+          <t>Evaluar las dependencias externas para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles. </t>
+          <t>Se deben evaluar y revisar las dependencias de recursos externos al grupo de AVD, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN y/o Express Route, servicios externos y componentes de 3rd-party. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Revisar UDR para la subred del grupo de hosts AVD</t>
+          <t>Revisar el sistema operativo del cliente utilizado y el tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se puede aplicar UDR personalizado a la subred del grupo de hosts AVD, por ejemplo, para redirigir a Azure Firewall o NVA. En este caso, se recomienda revisar cuidadosamente para garantizar que se utilice la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR, luego el tráfico del plano de administración AVD se puede incluir fácilmente en la lista blanca. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
+          <t>Comprobar los requisitos de licencia</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Las direcciones URL requeridas para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad desde los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Los clientes que tienen la licencia adecuada para ejecutar cargas de trabajo de Windows Virtual Desktop son elegibles para aplicar una licencia de Windows a sus máquinas virtuales host de sesión y ejecutarlas sin pagar por otra licencia.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de la máquina virtual</t>
+          <t>Ejecute una prueba de concepto para probar la experiencia del usuario de extremo a extremo y verificar el impacto causado por la latencia de la red</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
+          <t xml:space="preserve">Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno PoC pequeño. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Anfitrión de la sesión</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
+          <t xml:space="preserve">Determinar si los usuarios accederán a AVD utilizando escritorios completos y/o aplicaciones remotas </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Una vez seleccionada la SKU de vm que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
+          <t xml:space="preserve">Determine si a los usuarios se les ofrecerán escritorios completos y/o grupos de aplicaciones remotas. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts de AVD</t>
+          <t xml:space="preserve">¿Todos los usuarios tendrán la misma configuración de RDP? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Las aplicaciones se pueden preinstalar en la/s imagen/es dorada/s, se pueden adjuntar mediante la función MSIX y AppAttach o distribuirse a los hosts después de la implementación del grupo utilizando métodos tradicionales de distribución de SW.</t>
+          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario o grupo.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estimar el número de imágenes doradas que se requerirán</t>
+          <t>Evaluar RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>¿Usarán el enmascaramiento de aplicaciones fslogix que se prestaría a una sola imagen, o imágenes múltiples con diferentes aplicaciones incorporadas: ¿qué es lo que requiere que se use más de una imagen?</t>
+          <t>RDP Shortpath para redes administradas es una característica de Azure Virtual Desktop que establece un transporte directo basado en UDP entre el cliente de Escritorio remoto y el host de sesión. La eliminación del relé adicional reduce el tiempo de ida y vuelta, lo que mejora la experiencia del usuario con aplicaciones y métodos de entrada sensibles a la latencia. Para admitir RDP Shortpath, el cliente de Azure Virtual Desktop necesita una línea de visión directa al host de sesión y debe ejecutar Windows 10 o Windows 7 y tener instalado el cliente de escritorio de Windows.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué imagen o imágenes del sistema operativo usará para la implementación del grupo de hosts</t>
+          <t>Determine en qué región o grupos de hosts AVD de Azure se implementarán.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué so invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
+          <t>AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, ¿determinar si existe un proceso de compilación automatizado?</t>
+          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si no existe nada, considere la posibilidad de usar Azure Image Builder para automatizar el proceso de compilación. </t>
+          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planee la conectividad necesaria. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, ¿existe un plan para organizar y gestionar el ciclo de vida de sus imágenes?</t>
+          <t>¿Evaluó la latencia entre la ubicación de los usuarios y la infraestructura de Azure AVD?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evalúe la Galería de proceso de Azure.</t>
+          <t xml:space="preserve">Ejecute la herramienta 'Windows Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, consulte las prácticas recomendadas para AVD sobre cómo crear una imagen maestra</t>
+          <t>Determinar la ubicación de metadatos para el servicio AVD</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay algunas prácticas recomendadas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia. </t>
+          <t xml:space="preserve">AVD almacena metadatos solo para ejecutar el servicio en ubicaciones geográficas específicas, determinar qué está disponible hoy y, si es adecuado, según los requisitos del cliente. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
+          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños de máquina virtual específicos en las regiones seleccionadas</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
+          <t xml:space="preserve">Compruebe si hay SKU de máquina virtual específicas, especialmente si necesita GPU o SKU de especificaciones altas y, finalmente, la disponibilidad de Azure NetApp Files si se usa. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Planificar/evaluar la estrategia de administración de la configuración del host de sesión AVD</t>
+          <t>Comprobar la disponibilidad de la zona de disponibilidad (AZ) en la región seleccionada</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de máquinas virtuales del grupo de hosts después de la implementación inicial, por ejemplo, SCCM, MEM/Intune, GPO, soluciones de terceros.</t>
+          <t>Consulte la sección BCDR para obtener más detalles.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
+          <t>Creación de al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Revise el artículo proporcionado y marque las características de OneDrive 'Redirección de carpetas conocidas' y 'Archivos onDemand' deben considerarse y, finalmente, adoptarse.</t>
+          <t xml:space="preserve">Se recomiendan los controladores de dominio de AD en Azure para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, para la integración de Azure NetApp Files y AD. ADC debe poder comunicarse con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe usar la conectividad local para llegar a los controladores de dominio de AD. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
+          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de revisar este artículo y usar la última versión, revise y evalúe las exclusiones de Teams para reducir el tamaño del perfil.</t>
+          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No use la misma cuenta/recurso compartido de almacenamiento que los contenedores de profile/Office </t>
+          <t>Revisar el GPO de dominio que se aplicará a la unidad organizativa y que afecta a las funcionalidades de la máquina virtual del grupo de hosts</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas/recursos compartidos de almacenamiento independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S de perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que esas opciones ofrecen el mejor valor entre el costo y la sobrecarga de administración. </t>
+          <t xml:space="preserve">Revise cuidadosamente y, finalmente, bloquee o filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Revisar las consideraciones de rendimiento para MSIX</t>
+          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>En el artículo al que se hace referencia, informamos de pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto de AVD, asegúrese de revisar cuidadosamente.</t>
+          <t xml:space="preserve">Se recomienda tener una cuenta dedicada específica con permisos específicos y sin la limitación predeterminada de 10 uniones. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
+          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios a los que se concederá acceso a cada grupo de aplicaciones del grupo de servidores host (DAG o RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MsiX app attach requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, para los hosts de sesión, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuenta de almacenamiento y de uso compartido de archivos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
+          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y replíquelos con ADC en Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
+          <t>Revisión de la directiva de expiración de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>El proveedor de software de 3ª parte debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
+          <t>Como parte del procedimiento para integrar el recurso compartido de archivos de Azure y la autenticación de Active Directory, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede elegir registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte Preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una antigüedad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
+          <t>Un inquilino de Azure Active Directory debe estar disponible con al menos una suscripción vinculada</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que debe deshabilitarse.</t>
+          <t>Una suscripción de Azure debe ser primaria al mismo inquilino de Azure AD, que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory o Azure AD DS.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Revisar la compatibilidad con sistemas operativos</t>
+          <t>Un bosque/dominio de Windows Server Active Directory está sincronizado con Azure Active Directory</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>Para aprovechar MSIX y App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10 Enterprise o Windows 10 Enterprise Multisesión, versión 2004 o posterior.</t>
+          <t>Puede configurarlo mediante Azure AD Connect (para organizaciones híbridas) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anfitrión de la sesión </t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar qué tipo de disco administrado se usará para los hosts de sesión  </t>
+          <t>Compruebe los requisitos de la cuenta de usuario para conectarse a Windows Virtual Desktop</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD estándar, SSD estándar o SSD premium, los discos efímeros no son compatibles, no se recomiendan los discos ultra. Se recomienda evaluar el disco Premium para el sistema operativo si la densidad de usuarios no es baja y si va a utilizar Cloud Cache. </t>
+          <t>(1) El usuario debe provenir del mismo Active Directory que está conectado a Azure AD. Windows Virtual Desktop no admite cuentas B2B o MSA. (2) El UPN que use para suscribirse a Windows Virtual Desktop debe existir en el dominio de Active Directory al que está unida la máquina virtual.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué solución de back-end de almacenamiento se usará para FSLogix Profile y Office Containers</t>
+          <t>Compruebe los requisitos de VM para los hosts de sesión AVD que se crearán</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, servidor de archivos basado en máquina virtual. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. NetApp solo suele ser necesario para entornos a gran escala o de alto rendimiento. </t>
+          <t>Las máquinas virtuales deben estar unidas a un dominio estándar o híbridas a AD. Las máquinas virtuales no se pueden unir a Azure AD.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la posibilidad de separar los contenedores de perfiles de los contenedores de Office</t>
+          <t xml:space="preserve">Antes de usar los Servicios de dominio de Azure Active Directory (AAD-DS) para AVD, asegúrese de revisar las limitaciones. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La recomendación de Escritorio virtual de Windows es usar el contenedor de perfiles sin contenedor de Office a menos que esté planeando escenarios específicos de continuidad del negocio y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Comparación de Servicios de dominio de Active Directory autoadministrados, Azure Active Directory y Servicios de dominio de Azure Active Directory administrados</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los límites de escalabilidad del almacenamiento para admitir los requisitos del grupo de hosts</t>
+          <t>Evaluar el requisito de la capacidad de escalado automático del grupo de hosts</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>Como punto de partida para estimar los requisitos de rendimiento del almacenamiento de contenedores de perfiles, recomendamos asumir 10 IOPS por usuario en el estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión.</t>
+          <t xml:space="preserve">La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de la máquina virtual del host de sesión. Puede usar la herramienta de escalado para programar máquinas virtuales para que se inicien y detengan en función de las horas comerciales pico y fuera de pico, escalar horizontalmente máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas de menor actividad, dejando en ejecución el número mínimo de máquinas virtuales host de sesión. Aún no está disponible para el tipo de grupo de hosts personales, se recomienda tener una configuración independiente para cada grupo de hosts. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Si se utiliza el almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
+          <t>Comprobar periódicamente las recomendaciones de Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>Si se requiere una segunda región para fines de recuperación ante desastres, verifique también la disponibilidad de NetApp allí.</t>
+          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar sus recursos de Azure para ofrecer confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles FSLogix deben estar en la misma ubicación del centro de datos.</t>
+          <t>Planeación de una estrategia de administración de actualizaciones de imágenes doradas</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
+          <t>Prepare una estrategia para administrar las actualizaciones de las imágenes doradas, por ejemplo, para aplicar revisiones de seguridad y/o actualizar las aplicaciones instaladas dentro de la imagen. Azure Image Builder Service es una solución de 1ª parte para automatizar la compilación y personalización de máquinas virtuales. Las plantillas de ARM se pueden usar para crear nuevos hosts y, a continuación, retirar los antiguos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool El enfoque recomendado es crear un nuevo grupo en paralelo, más fácil de revertir, no utilizable para un grupo dedicadoRe-implementar y aumentar el número de máquinas virtuales con la plantilla ARM también es una opción viable. Los clientes también pueden querer utilizar los métodos de distribución de software existentes para actualizar la imagen sin volver a implementarla, por ejemplo, con SCCM o similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
+          <t>Planeación de una estrategia de actualización y revisión del host de sesión</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de configurar las siguientes exclusiones antivirus para los discos duros virtuales FSLogix Profile Container, como se documenta en el artículo al que se hace referencia.</t>
+          <t xml:space="preserve">Los clientes pueden tener varias opciones:- Microsoft Endpoint Configuration Manager, este artículo explica cómo configurar Microsoft Endpoint Configuration Manager para aplicar automáticamente actualizaciones a un host de Windows Virtual Desktop que ejecuta Windows 10 Enterprise multisesión: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que admite su sistema operativo.- Azure Update Management (Azure Automation), hoy no compatible con el sistema operativo cliente: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt se recomienda alejarse de una estrategia de revisión y pasar a una estrategia de recreación de imágenes si es posible. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
+          <t>Evaluar el requisito de un entorno canario de prueba AVD</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La configuración básica y recomendada predeterminada está aquí: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Consulte aquí el conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aquí para obtener una referencia completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Los grupos de servidores host son una colección de una o más máquinas virtuales idénticas dentro del entorno de Windows Virtual Desktop. Se recomienda encarecidamente crear un grupo de hosts de validación donde se apliquen primero las actualizaciones de servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o de no validación.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Comprobar el uso de conexiones simultáneas o múltiples al mismo perfil</t>
+          <t>Determinación de la estrategia de implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Se desaconsejan las conexiones simultáneas o múltiples en Windows Virtual Desktop. La práctica recomendada es crear una ubicación de perfil diferente para cada sesión (como grupo de hosts).</t>
+          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas de ARM, herramienta CLI de Azure, PowerShell, creación manual de máquinas virtuales con token de registro, Terraform, etc. Es importante adoptar método(s) adecuados/s para soportar la implementación automática a través de herramientas de automatización y CI/CD.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Revise las prácticas recomendadas y las consideraciones clave para el tamaño del almacenamiento de información</t>
+          <t>Activar las máquinas virtuales regularmente cada 90 días para la actualización de tokens</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como estimación general, para ser validado en un entorno de prueba, para cada usuario se deben considerar primero de 5 a 15 IOPS, dependiendo de la carga de trabajo. Azure Files: IOPS premium máximas de 100 k por recurso compartido (máximo 100 TB) y hasta 5 Gbps con latencia de 3 ms. Tenga en cuenta cómo se aprovisiona Azure Files, es decir, IOPS estrictamente vinculadas t'o TAMAÑO aprovisionado. Capacidad de tamaño de ráfaga en algunos casos. Asegúrese de aprovisionar por adelantado más espacio del requerido para asegurarse de tener suficientes IOPS. NOTA: Azure Premium puede ser más barato que Standard porque no paga transacciones, luego debe tener en cuenta los detalles importantes. Azure NetApp Files: recuerde un máximo de 1000 DIRECCION IP conectadas, puede ajustar las IOPS sobre la marcha, capacidad aprovisionada mínima de 4 TB. </t>
+          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio Windows Virtual Desktop, el agente actualiza regularmente el token de la máquina virtual siempre que la máquina virtual está activa. El certificado para el token de registro es válido durante 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los procedimientos recomendados para Azure Files (si se usa)</t>
+          <t>Habilitación de la supervisión de Azure para AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t>Azure Monitor para Windows Virtual Desktop es un panel basado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Windows Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Windows Virtual Desktop para supervisar los entornos de Windows Virtual Desktop.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Compruebe las prácticas recomendadas para los archivos de NetApp (si se utilizan)</t>
+          <t>Habilitar y redirigir la configuración de diagnóstico para áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host al área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t xml:space="preserve">Windows Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas como muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se divide en las siguientes categorías: Administración, Fuente, Conexiones, Registro de host, Errores, Puntos de control. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
+          <t>Crear alertas en el almacenamiento del perfil para recibir alertas en caso de uso elevado y limitación</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se prevén contenedores de perfiles grandes y los clientes desean intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil FSLogix.</t>
+          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Si se utiliza FSLogix Cloud Cache, mueva el directorio Cache a la unidad temporal.</t>
+          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache utiliza el disco local como caché y puede generar mucha presión en el disco de la máquina virtual. Se recomienda aprovechar la potencia del disco de máquina virtual temporal (y conectado localmente), si es posible en función de la SKU de la máquina virtual. </t>
+          <t>Puede usar Azure Service Health para supervisar problemas de servicio y avisos de mantenimiento para Windows Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerle actualizado a medida que se resuelve el problema.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Revise el uso de la redirección FSLogix.</t>
+          <t>Revisar la arquitectura de conectividad híbrida para el entorno local</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen desde el contenedor de perfiles a la unidad C:. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno en el que se pretende aplicar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
+          <t>¿Qué tipo de conectividad híbrida? ¿Ruta Express, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de AD en la conexión de AD.</t>
+          <t>Evaluar qué recursos necesitarán los usuarios para acceder desde grupos de hosts AVD a las instalaciones</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred ANF y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
+          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda VPN/ER sea suficiente y que la latencia sea tolerable. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que los usuarios de AVD no tendrán privilegios de administrador local en los hosts de AVD. </t>
+          <t>Revisar la topología de red de la zona de aterrizaje para el servicio AVD</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>Le recomendamos que no conceda a sus usuarios acceso de administrador a los escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración como Microsoft Endpoint Manager. En un entorno de varias sesiones, le recomendamos que no permita que los usuarios instalen software directamente.</t>
+          <t>Revise o recomiende uno nuevo donde colocar grupos de hosts AVD basados en CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza la solución antivirus y antimalware</t>
+          <t>Evaluación de la ubicación de redes virtuales y subredes para varios grupos de servidores host</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint ahora admite Windows Virtual Desktop para Windows 10 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Asegúrese de que cada subred tenga suficiente espacio para escalar el grupo de hosts AVD. Para diferentes grupos de hosts, se recomienda usar subredes independientes si es posible. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se implementen las exclusiones AV adecuadas</t>
+          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que existan las siguientes exclusiones: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o NVA Firewall, NSG y/o Proxy. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD están aquí en https://aka.ms/AVDfirewall y aquí https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Asegúrese de revisar la lista completa de requisitos para el acceso a las URL de AVD.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Evaluar los requisitos de cifrado de disco para hosts AVD</t>
+          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con las claves administradas por Microsoft. El cifrado del disco del sistema operativo de la máquina virtual host es posible y compatible con ADE y DES: los datos de usuario sensibles y permanentes no deben almacenarse en el disco host de sesión, luego deben usarse solo si es estrictamente necesario por razones de cumplimiento. El cifrado del almacenamiento de FSLogix con Azure Files se puede realizar mediante SSE en Azure Storage.Para el cifrado de OneDrive, consulte este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Tenga en cuenta el uso de Azure Defender Endpoint para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>¿Necesita controlar/restringir la navegación por Internet del usuario desde los hosts de sesión AVD?</t>
+          <t>Revisar UDR para la subred del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario. </t>
+          <t xml:space="preserve">UDR personalizado se puede aplicar a la subred del grupo de hosts de AVD, por ejemplo, para redirigir a Azure Firewall o NVA. En este caso se recomienda revisar cuidadosamente para asegurarse de que se utiliza la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR, luego el tráfico del plano de administración de AVD se puede incluir fácilmente en la lista blanca. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Azure Security Center (ASC) para hosts de sesión AVD</t>
+          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda habilitar Azure Security Center Standard para suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento. Con Azure Security Center Standard es posible evaluar y administrar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD.</t>
+          <t>Las URL necesarias para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad de los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Revisar los GPO de Active Directory para proteger las sesiones RDP</t>
+          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de máquina virtual</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se debe utilizar, por ejemplo, para imponer el bloqueo del escritorio y la terminación de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse para proteger también los hosts AVD. </t>
+          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de MFA para usuarios de AVD</t>
+          <t xml:space="preserve">Asegúrese de que los usuarios de AVD no tengan privilegios de administrador local en los hosts AVD. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>Para obtener información y detalles adicionales, consulte este artículo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>Le recomendamos que no conceda a los usuarios acceso de administrador a escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración como Microsoft Endpoint Manager. En un entorno multisesión, le recomendamos que no permita que los usuarios instalen software directamente.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso del acceso condicional para los usuarios</t>
+          <t>Asegúrese de que se utiliza una solución antivirus y antimalware</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el acceso condicional le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno de Windows Virtual Desktop. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está utilizando.</t>
+          <t>Microsoft Defender para Endpoint ahora admite Windows Virtual Desktop para Windows 10 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el registro de diagnóstico y auditoría en el área de trabajo central de Log Analytics</t>
+          <t>Asegúrese de que las exclusiones AV adecuadas estén en su lugar</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habilitar la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Windows Virtual Desktop. Esto también es un requisito para eanble y utilizar la herramienta avD Monitoring. Muy recomendable para habilitar. </t>
+          <t>Asegúrese de que las siguientes exclusiones estén en su lugar: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD </t>
+          <t>Evaluar los requisitos de cifrado de disco para hosts AVD</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD usa controles de acceso basados en roles (RBAC) de Azure para asignar roles a usuarios y administradores. Estos roles dan permiso a los administradores para llevar a cabo ciertas tareas. Si se requiere la separación de tareas, Escritorio virtual de Windows tiene roles adicionales que le permiten separar los roles de administración para grupos de hosts, grupos de aplicaciones y áreas de trabajo. Esta separación le permite tener un control más granular sobre las tareas administrativas. Estos roles se nombran de conformidad con los roles estándar de Azure y la metodología de privilegios mínimos.</t>
+          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con claves administradas por Microsoft. El cifrado de disco del sistema operativo de la máquina virtual host es posible y compatible con ADE y DES: los datos de usuario sensibles y persistentes no deben almacenarse en el disco host de sesión, luego deben usarse solo si es estrictamente necesario por razones de cumplimiento. El cifrado del almacenamiento FSLogix mediante Azure Files se puede realizar mediante SSE en Azure Storage.Para el cifrado de OneDrive, consulte este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Revise todas las prácticas recomendadas de seguridad para el entorno AVD</t>
+          <t>¿Necesita controlar/restringir la navegación del usuario por Internet desde los hosts de sesión AVD?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un conjunto completo de mejores prácticas y recomendaciones de seguridad están contenidas en el artículo referenciado, se recomienda revisar. </t>
+          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Habilitar la supervisión de Azure para AVD</t>
+          <t>Evaluación del uso de Azure Security Center (ASC) para hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor para Windows Virtual Desktop es un panel creado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Windows Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Windows Virtual Desktop para supervisar los entornos de Windows Virtual Desktop.</t>
+          <t>Se recomienda habilitar Azure Security Center Standard para suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento. Con Azure Security Center Standard es posible evaluar y administrar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Habilitar y redirigir la configuración de diagnóstico de áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host al área de trabajo de Log Analytics</t>
+          <t>Revisar los GPO de Active Directory para proteger las sesiones RDP</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas, al igual que muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se encuentra en las siguientes categorías: Administración, Feed, Conexiones, Registro de host, Errores, Puntos de control. </t>
+          <t xml:space="preserve">Debe utilizarse, por ejemplo, para imponer el bloqueo del escritorio y la terminación de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse para proteger también los hosts AVD. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Cree alertas sobre el almacenamiento de perfiles que se van a alertar en caso de alto uso y limitación</t>
+          <t>Evaluar el uso de MFA para usuarios de AVD</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>Para obtener detalles e información adicionales, consulte este artículo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
+          <t>Evaluar el uso del acceso condicional para los usuarios</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Puede usar Azure Service Health para supervisar los problemas de servicio y los avisos de mantenimiento de Windows Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerlo actualizado a medida que se resuelve el problema.</t>
+          <t>La habilitación del acceso condicional le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno de Windows Virtual Desktop. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está usando.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de la capacidad de escalado automático del grupo de hosts</t>
+          <t>Habilitar el registro de diagnóstico y auditoría en el área de trabajo central de Log Analytics</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de su máquina virtual de host de sesión. Puede usar la herramienta de escalado para programar el inicio y la detención de máquinas virtuales en función de las horas laborables pico y fuera de hora punta, escalar horizontalmente las máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas valle, dejando el número mínimo de máquinas virtuales host de sesión en ejecución. Todavía no está disponible para el tipo de grupo de host personal, se recomienda tener una configuración independiente para cada grupo de hosts. </t>
+          <t xml:space="preserve">Habilitar la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Windows Virtual Desktop. Este es también un requisito para habilitar y utilizar la herramienta de monitoreo AVD. Muy recomendable para habilitar. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Compruebe periódicamente las recomendaciones de Azure Advisor para AVD</t>
+          <t xml:space="preserve">Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar los recursos de Azure en cuanto a confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
+          <t>AVD usa controles de acceso basados en rol (RBAC) de Azure para asignar roles a usuarios y administradores. Estos roles dan permiso a los administradores para llevar a cabo ciertas tareas. Si se requiere separación de tareas, Windows Virtual Desktop tiene funciones adicionales que permiten separar las funciones de administración para grupos host, grupos de aplicaciones y áreas de trabajo. Esta separación le permite tener un control más granular sobre las tareas administrativas. Estos roles se denominan de conformidad con los roles estándar y la metodología de privilegios mínimos de Azure.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Planificar una estrategia de gestión de actualización de imágenes doradas</t>
+          <t>Revisar todas las prácticas recomendadas de seguridad para el entorno AVD</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare una estrategia para administrar las actualizaciones de las imágenes doradas, por ejemplo, para aplicar revisiones de seguridad y/o actualizar las aplicaciones instaladas dentro de la imagen. Azure Image Builder Service es una solución de 1.ª parte para automatizar la compilación y la personalización de máquinas virtuales.Las plantillas de ARM se pueden usar para crear nuevos hosts y, a continuación, retirar los antiguos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool El enfoque recomendado es crear un nuevo grupo en paralelo, más fácil de revertir, no utilizable para grupos dedicados. Es posible que los clientes también deseen utilizar los métodos de distribución de software existentes para actualizar la imagen sin volver a implementarla, para exampel con SCCM o similar.</t>
+          <t xml:space="preserve">Un conjunto completo de mejores prácticas de seguridad y recomendaciones se encuentran en el artículo al que se hace referencia, se recomienda revisar. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Planeación de una estrategia de parches y actualizaciones de Host de sesión</t>
+          <t>Determinar qué solución back-end de almacenamiento se usará para FSLogix Profile y Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los clientes pueden tener varias opciones:- Microsoft Endpoint Configuration Manager, este artículo explica cómo configurar Microsoft Endpoint Configuration Manager para aplicar automáticamente actualizaciones a un host de Windows Virtual Desktop que ejecuta Windows 10 Enterprise multisesión: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª parte que admite su sistema operativo.- Azure Update Management (Azure Automation), hoy no compatible con el sistema operativo cliente: se recomienda https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt alejarse de una estrategia de aplicación de revisiones y pasar a una estrategia de creación de imágenes si es posible. </t>
+          <t xml:space="preserve">Azure NetApp Files, Azure Files, servidor de archivos basado en VM. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. Por lo general, NetApp solo se requiere para entornos de gran escala / alto rendimiento. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito para un entorno canario de prueba AVD</t>
+          <t>Evaluar la posibilidad de separar los contenedores de perfiles de los contenedores de Office</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Los grupos de hosts son una colección de una o más máquinas virtuales idénticas dentro del entorno de Windows Virtual Desktop. Le recomendamos encarecidamente que cree un grupo de hosts de validación donde se apliquen primero las actualizaciones del servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o no de validación.</t>
+          <t xml:space="preserve">La recomendación de Windows Virtual Desktop es usar el contenedor de perfiles sin el contenedor de Office, a menos que esté planeando escenarios específicos de continuidad empresarial y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determinar la estrategia de implementación del grupo de hosts</t>
+          <t>Verificar los límites de escalabilidad del almacenamiento para admitir los requisitos del grupo de hosts</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas arm, herramienta cli de Azure, Powershell, creación manual de máquinas virtuales con token de registro, Terraform, etc. Es importante adoptar métodos adecuados para admitir la implementación automática a través de herramientas de automatización y CI/CD.</t>
+          <t>Como punto de partida para estimar los requisitos de rendimiento de almacenamiento de contenedores de perfiles, se recomienda asumir 10 IOPS por usuario en estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Encienda las máquinas virtuales regularmente cada 90 días para actualizar los tokens</t>
+          <t>Si se utiliza el almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio De escritorio virtual de Windows, el agente actualiza regularmente el token de la máquina virtual cada vez que la máquina virtual está activa. El certificado para el token de registro es válido por 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
+          <t>Si se requiere una segunda región para fines de recuperación ante desastres, verifique también la disponibilidad de NetApp.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determinar el SLA de alta disponibilidad esperado para aplicaciones/escritorios publicados a través de AVD</t>
+          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles FSLogix deben estar en la misma ubicación del centro de datos.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">El plan de control avD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr al menos un 99,9 % de disponibilidad para las direcciones URL del servicio Windows Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. Los recursos/servicios dependientes y la disponibilidad de la infraestructura también deben considerarse para satisfacer adecuadamente los requisitos globales de alta disponibilidad. </t>
+          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la región de recuperación ante desastres geográficos para grupos de hosts AVD</t>
+          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>El modelo Active-Active' se puede lograr con múltiples grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar/replicar en absoluto. 'Activo-pasivo' se puede lograr mediante Azure Site Recovery (ASR) o la implementación del grupo bajo demanda con un mecanismo automatizado.</t>
+          <t>Asegúrese de configurar las siguientes exclusiones antivirus para los discos duros virtuales del contenedor de perfiles FSLogix, como se documenta en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Separe las aplicaciones críticas en diferentes grupos de hosts AVD</t>
+          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Antes de abordar la planificación y el diseño de BCDR de Windows Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
+          <t xml:space="preserve">La configuración básica y recomendada predeterminada está aquí: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Consulte aquí el conjunto básico: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aquí para una referencia completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Planeación de la mejor opción de resiliencia para la implementación de AVD Host Pool</t>
+          <t>Comprobar el uso de conexiones simultáneas o múltiples al mismo perfil</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? ¿Seleccionó el nivel de resistencia adecuado para las máquinas virtuales del grupo de hosts (conjunto de disponibilidad frente a zonas de disponibilidad)? ¿Es consciente de las implicaciones en ha SLA y los límites de escalabilidad que vienen con AS o AZ? ? Actualmente puede implementar 399 máquinas virtuales por implementación de plantilla de ARM de Windows Virtual Desktop sin conjuntos de disponibilidad o 200 máquinas virtuales por conjunto de disponibilidad. Puede aumentar el número de máquinas virtuales por implementación desactivando los conjuntos de disponibilidad en la plantilla arm o en la inscripción del grupo de hosts de Azure Portal. La implementación de AZ ahora es posible, una AZ a la vez en este momento, necesita crear manualmente una fracción de máquinas virtuales en cada AZ deseada. </t>
+          <t>Se desaconsejan las conexiones simultáneas o múltiples en Windows Virtual Desktop. La práctica recomendada es crear una ubicación de perfil diferente para cada sesión (como grupo de servidores).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de hacer una copia de seguridad de los hosts de sesión AVD</t>
+          <t>Revisar las mejores prácticas y las consideraciones clave para el dimensionamiento del almacenamiento</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copia de seguridad de Azure también se puede usar para proteger las máquinas virtuales del grupo de hosts, esta práctica es compatible, incluso si las máquinas virtuales del grupo de hosts no tienen estado. Esta opción podría considerarse para los grupos de hosts personales. </t>
+          <t xml:space="preserve">Como estimación general, para ser validada en un entorno de prueba, para cada usuario se deben considerar primero de 5 a 15 IOPS, dependiendo de la carga de trabajo. Azure Files: Premium max 100k IOPS por recurso compartido (máx. 100TB) y hasta 5Gbps con latencia de 3ms. Tenga en cuenta cómo se aprovisiona Azure Files, es decir, IOPS estrictamente vinculadas a SIZE aprovisionado. Capacidad de dimensionamiento de ráfaga en algunos casos. Asegúrese de aprovisionar por adelantado más espacio del necesario para asegurarse de tener suficientes IOPS. NOTA: Azure Premium puede ser más barato que Standard porque no paga transacciones, luego detalles importantes a tener en cuenta. Azure NetApp Files: recuerde un máximo de 1000 direcciones IP conectadas, puede ajustar IOPS sobre la marcha, capacidad aprovisionada mínima de 4 TB. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Evaluar qué datos deben protegerse dentro de los contenedores de perfil y de oficina</t>
+          <t>Compruebe los procedimientos recomendados para Azure Files (si se usa)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es posible que no todos los datos dentro de los perfiles de usuario de FSLogix merezcan protección contra desastres. Además, si se usa almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo en caché). </t>
+          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Cree una estrategia de protección de copia de seguridad para contenedores de perfiles y de Office</t>
+          <t>Compruebe las prácticas recomendadas para los archivos de NetApp (si se utilizan)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Prevenir la pérdida de datos para datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos de perfil de usuario y/o contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos de los usuarios. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de perfiles y contenedores de Office cuando se almacenan en los niveles Standard y Premium de Azure Files. Las instantáneas y directivas de Azure NetApp Files se pueden usar para Azure NetApp Files (todos los niveles).</t>
+          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Evalúe los requerimientos de replicación y la resiliencia del almacenamiento de información de Profile Container para fines de BCDR</t>
+          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>En AVD, se pueden utilizar múltiples mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix:? Patrón de perfil n.º 1: ¿Mecanismos nativos de replicación de almacenamiento de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files o sincronización de Azure Files para servidores de archivos basados en máquinas virtuales? Se recomienda usar almacenamiento replicado en zona (ZRS) o almacenamiento replicado geográfico (GRS) para Azure Files. LRS con resiliencia solo local se puede usar si no se requiere protección de zona / región. Nota : Azure Files Share Standard es LRS/ ZRS / GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiteN LRS / ZRS. ? Patrón de perfil # 2: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache debe usarse solo cuando:? Perfil de usuario o contenedores de Office La disponibilidad de datos requerida SLA de alta disponibilidad es crítica y debe ser resistente a los errores de la región. La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con la compatibilidad con archivos grandes habilitada, GRS no está disponible. Cuando se requiere replicación entre almacenamiento de información dispar.? Patrón de perfil # 3: Solo configure la recuperación ante desastres geográficos para los datos de la aplicación y no para los contenedores de datos / perfiles de usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de RECUPERACIÓN integrado.</t>
+          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se anticipan contenedores de perfiles grandes y los clientes quieren intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil de FSLogix.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
+          <t>Si se utiliza FSLogix Cloud Cache, mueva el directorio Cache a la unidad temporal.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files es esencialmente LRS (almacenamiento replicado localmente), por lo que debe diseñar algo más si desea replicación entre regiones. La recomendación para cada región en este momento es NetApp Cloud Sync, que se replica en otra región de Azure (y en NetApp Volume). Copia de seguridad: las copias de seguridad son manejadas por instantáneas, pero no son automáticas, deben programarse mediante políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Hay un límite máximo de instantáneas (255) por volumen como se documenta aquí: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">Cloud Cache utiliza el disco local como caché y puede generar mucha presión en el disco de la máquina virtual. Se recomienda aprovechar la potencia del disco de máquina virtual temporal (y conectado localmente), si es posible en función de la SKU de máquina virtual. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Revisar la estrategia de recuperación ante desastres de Azure Files</t>
+          <t>Revise el uso de la redirección FSLogix.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres geográficos: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con grandes recursos compartidos, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica, al usar Azure File Share Premium, se debe evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) 'en la región'. Copia de seguridad: Copia de seguridad de Azure es totalmente compatible con Azure File Share todos los SKU y es la solución recomendada para proteger los contenedores de perfiles. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos de perfil de usuario y/o contenedores de Office.</t>
+          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen fuera del contenedor de perfiles a la unidad C:. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno donde se pretende implementar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependencias</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Planeación de la disponibilidad entre regiones de Golden Image</t>
+          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de AD en la conexión de AD.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupo de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso en caso de un desastre mayor. El servicio Galería de procesos de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
+          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred ANF y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependencias</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe las dependencias de infraestructura y aplicaciones </t>
+          <t>Habilite SMB multicanal cuando use un recurso compartido de archivos premium para hospedar contenedores de perfiles FSLogix.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios de la infraestructura AVD necesitan acceso a los recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar y evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben tenerse en cuenta para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
+          <t>SMB Multichannel permite a los clientes utilizar múltiples conexiones de red que proporcionan un mayor rendimiento al tiempo que reducen el costo de propiedad. El aumento del rendimiento se logra mediante la agregación de ancho de banda en varias NIC y el uso de la compatibilidad con Receive Side Scaling (RSS) para que las NIC distribuyan la carga de E/S entre varias CPU.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Host de sesión </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determinar qué tipo de disco administrado se utilizará para los hosts de sesión  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HDD estándar, SSD estándar o SSD premium, discos efímeros no son compatibles, no se recomiendan discos Ultra. Se recomienda evaluar Premium para el disco del sistema operativo si la densidad de usuarios no es baja y si va a utilizar Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha analizado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/spreadsheet/avd_checklist.es.xlsx
+++ b/spreadsheet/avd_checklist.es.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Revisión de Azure Virtual Desktop</t>
+          <t>Azure Virtual Desktop Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,22 +1095,22 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>Determinar en qué región o regiones de Azure se implementarán los grupos de hosts AVD</t>
+          <t>Determinar el SLA de alta disponibilidad esperado para aplicaciones o escritorios publicados a través de AVD</t>
         </is>
       </c>
       <c r="D8" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente. </t>
+          <t xml:space="preserve">El plan de control AVD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr una disponibilidad mínima del 99,9 % para las direcciones URL del servicio Windows Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. También se debe considerar la disponibilidad de recursos/servicios dependientes y de infraestructura para satisfacer adecuadamente los requisitos globales de alta disponibilidad. </t>
         </is>
       </c>
       <c r="E8" s="22" t="inlineStr">
@@ -1126,7 +1126,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,22 +1145,22 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
+          <t>Evaluar la región de recuperación ante desastres geográficos para grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planifique la conectividad necesaria. </t>
+          <t>El modelo Active-Active' se puede lograr con varios grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar / replicar en absoluto. "Activo-pasivo" se puede lograr mediante Azure Site Recovery (ASR) o la implementación de grupos a petición con un mecanismo automatizado.</t>
         </is>
       </c>
       <c r="E9" s="22" t="inlineStr">
@@ -1176,7 +1176,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,27 +1195,27 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>¿Evaluó la latencia entre la ubicación de los usuarios y la infraestructura de Azure AVD?</t>
+          <t>Separar las aplicaciones críticas en diferentes grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D10" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ejecute la herramienta 'Windows Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima. </t>
+          <t>Antes de abordar la planeación y el diseño de BCDR de Windows Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1226,7 +1226,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1234,7 +1234,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1245,27 +1245,27 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Determinar la ubicación de los metadatos para el servicio AVD</t>
+          <t>Planeación de la mejor opción de resistencia para la implementación del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D11" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD almacena metadatos solo para ejecutar el servicio en ubicaciones geográficas específicas, determinar qué está disponible hoy en día y si es adecuado en función de los requisitos del cliente. </t>
+          <t xml:space="preserve">? ¿Seleccionó el nivel de resistencia adecuado para las máquinas virtuales del grupo de hosts (conjunto de disponibilidad frente a zonas de disponibilidad)? ¿Conoce las implicaciones en el SLA de alta disponibilidad y los límites de escalabilidad que vienen con AS o AZ? ? Actualmente puede implementar 399 máquinas virtuales por implementación de plantilla ARM de escritorio virtual de Windows sin conjuntos de disponibilidad o 200 máquinas virtuales por conjunto de disponibilidad. Puede aumentar el número de máquinas virtuales por implementación desactivando los conjuntos de disponibilidad en la plantilla de ARM o en la inscripción del grupo de hosts de Azure Portal. Ahora es posible implementar AZ, una AZ a la vez en este momento, necesita crear manualmente una fracción de máquinas virtuales en cada AZ deseada. </t>
         </is>
       </c>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1276,7 +1276,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1284,7 +1284,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1295,27 +1295,27 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños de máquina virtual específicos en las regiones seleccionadas</t>
+          <t>Evaluar el requisito de copia de seguridad de los hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D12" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compruebe si hay SKU de vm específicas, especialmente si necesita GPU o SKU de especificaciones altas y, finalmente, disponibilidad de Azure NetApp Files si se usa. </t>
+          <t xml:space="preserve">Copia de seguridad de Azure también se puede usar para proteger máquinas virtuales del grupo de hosts, esta práctica es compatible, incluso si las máquinas virtuales del grupo de hosts no tienen estado. Esta opción podría considerarse para grupos de hosts personales. </t>
         </is>
       </c>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,27 +1345,27 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Dependencias</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>Comprobar la disponibilidad de la zona de disponibilidad (AZ) en la región seleccionada</t>
+          <t>Planeación de la disponibilidad de Golden Image entre regiones</t>
         </is>
       </c>
       <c r="D13" s="22" t="inlineStr">
         <is>
-          <t>Consulte la sección BCDR para obtener más detalles.</t>
+          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupos de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso si se trata de un desastre importante. El servicio Galería de proceso de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
         </is>
       </c>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1376,7 +1376,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,22 +1395,22 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Dependencias</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>Evalúe cuántos usuarios se conectarán a AVD y desde qué regiones</t>
+          <t xml:space="preserve">Evaluar las dependencias de infraestructura y aplicaciones </t>
         </is>
       </c>
       <c r="D14" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para una planificación e implementación adecuadas, es importante evaluar el número máximo de usuarios y el promedio de sesiones simultáneas. </t>
+          <t>Si los usuarios de la infraestructura AVD necesitan acceso a recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben considerarse para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
         </is>
       </c>
       <c r="E14" s="22" t="inlineStr">
@@ -1426,7 +1426,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1434,7 +1434,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1445,22 +1445,22 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>Determinar si todos los usuarios tendrán el mismo conjunto de aplicaciones y/o diferentes configuraciones de grupo de hosts y/o imágenes del sistema operativo</t>
+          <t>Evaluar qué datos deben protegerse dentro de los contenedores de perfil y oficina</t>
         </is>
       </c>
       <c r="D15" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mutiple Host Pools puede ser necesario para admitir diferentes conjuntos de usuarios, se recomienda estimar cuántos serán necesarios. </t>
+          <t xml:space="preserve">No todos los datos dentro de los perfiles de usuario de FSLogix pueden merecer protección contra desastres. Además, si se utiliza almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo caché). </t>
         </is>
       </c>
       <c r="E15" s="22" t="inlineStr">
@@ -1476,7 +1476,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1495,27 +1495,27 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Evaluar dependencias externas para cada grupo de hosts</t>
+          <t>Crear una estrategia de protección de copia de seguridad para contenedores de perfiles y Office</t>
         </is>
       </c>
       <c r="D16" s="22" t="inlineStr">
         <is>
-          <t>Las dependencias de recursos externos al grupo de AVD deben evaluarse y revisarse, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN y/o Express Route, servicios externos y componentes de terceros. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
+          <t>Prevenir la pérdida de datos para los datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos del usuario. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de contenedores de Office y perfiles cuando se almacenan en los niveles Standard y Premium de Azure Files. Azure NetApp Files Snapshots and Policies se puede usar para Azure NetApp Files (todos los niveles).</t>
         </is>
       </c>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1526,7 +1526,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,22 +1545,22 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>Revisar el sistema operativo cliente utilizado y el tipo de cliente AVD</t>
+          <t>Evaluar los requerimientos de replicación y la resiliencia del almacenamiento de almacenamiento de información de contenedores de perfiles para fines de BCDR</t>
         </is>
       </c>
       <c r="D17" s="22" t="inlineStr">
         <is>
-          <t>Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
+          <t>En AVD, se pueden usar múltiples mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix: Patrón de perfil #1: ¿Mecanismos de replicación de almacenamiento nativos de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files o Azure Files Sync para servidores de archivos basados en máquinas virtuales? Se recomienda usar el almacenamiento replicado en zona (ZRS) o el almacenamiento con replicación geográfica (GRS) para Azure Files. LRS con resistencia solo local se puede usar si no se requiere protección de zona/región. NOTA: Azure Files Share Standard es LRS/ZRS/GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiten LRS/ZRS. ? Patrón de perfil # 2: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache solo debe usarse cuando:? Perfil de usuario o contenedores de Office disponibilidad de datos requeridos SLA de alta disponibilidad es crítico y debe ser resistente a errores de región. La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con compatibilidad con archivos grandes habilitada, GRS no está disponible. Cuando se requiere replicación entre almacenamiento de información dispares. Patrón de perfil # 3: Solo configure la recuperación geográfica ante desastres para los datos de la aplicación y no para los contenedores de datos / perfiles del usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de DR incorporado.</t>
         </is>
       </c>
       <c r="E17" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,27 +1595,27 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de licencia</t>
+          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
         </is>
       </c>
       <c r="D18" s="22" t="inlineStr">
         <is>
-          <t>Los clientes que tienen la licencia adecuada para ejecutar cargas de trabajo de Windows Virtual Desktop son elegibles para aplicar una licencia de Windows a sus máquinas virtuales de host de sesión y ejecutarlas sin pagar por otra licencia.</t>
+          <t>Recuperación ante desastres geográfica: Azure NetApp Files es esencialmente LRS (almacenamiento replicado localmente), entonces necesita diseñar algo más si desea la replicación entre regiones. La recomendación para la multiregión en este momento es Cloud Sync de NetApp, replicando en otra región de Azure (y NetApp Volume). Copia de seguridad: Las copias de seguridad son manejadas por instantáneas, pero no son automáticas, deben programarse mediante políticas. https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Hay un límite máximo de instantáneas (255) por volumen, como se documenta aquí: https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
         </is>
       </c>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1626,7 +1626,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1634,7 +1634,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1645,27 +1645,27 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>BC/DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Ejecute un PoC para probar la experiencia del usuario de extremo a extremo y comprobar el impacto causado por la latencia de la red</t>
+          <t>Revisión de la estrategia de recuperación ante desastres de Azure Files</t>
         </is>
       </c>
       <c r="D19" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno poC pequeño. </t>
+          <t>Recuperación ante desastres geográfica: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con recursos compartidos grandes, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica, al usar Azure File Share Premium, se debe evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) "en la región". Copia de seguridad: Azure Backup es totalmente compatible con Azure File Share todos los SKU y es la solución recomendada para proteger los contenedores de perfiles. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office.</t>
         </is>
       </c>
       <c r="E19" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1676,7 +1676,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-afs</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1695,27 +1695,27 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar si los usuarios accederán a AVD utilizando escritorios completos y/o aplicaciones remotas </t>
+          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D20" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine si a los usuarios se les ofrecerán escritorios completos y/o grupos de aplicaciones remotas. </t>
+          <t>Las aplicaciones se pueden preinstalar en la(s) imagen(es) dorada, se pueden adjuntar utilizando la función MSIX &amp; AppAttach o distribuyendo a hosts después de la implementación del grupo utilizando métodos tradicionales de distribución de SW.</t>
         </is>
       </c>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1726,7 +1726,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,27 +1745,27 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Todos los usuarios tendrán la misma configuración de RDP? </t>
+          <t>Estimar el número de imágenes doradas que se requerirán</t>
         </is>
       </c>
       <c r="D21" s="22" t="inlineStr">
         <is>
-          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario / grupo.</t>
+          <t>¿Usarán el enmascaramiento de aplicaciones fslogix que se prestaría a una sola imagen, o múltiples imágenes con diferentes aplicaciones incorporadas: ¿qué es lo que requiere que se use más de una imagen?</t>
         </is>
       </c>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,22 +1795,22 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Evaluar RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
+          <t>Determinar qué imagenes del sistema operativo usará para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D22" s="22" t="inlineStr">
         <is>
-          <t>RDP Shortpath para redes administradas es una característica de Azure Virtual Desktop que establece un transporte directo basado en UDP entre el cliente de Escritorio remoto y el host de sesión. La eliminación del relé adicional reduce el tiempo de ida y vuelta, lo que mejora la experiencia del usuario con aplicaciones sensibles a la latencia y métodos de entrada. Para admitir RDP Shortpath, el cliente de Azure Virtual Desktop necesita una línea de visión directa al host de sesión y debe ejecutar Windows 10 o Windows 7 y tener instalado el cliente de escritorio de Windows.</t>
+          <t>Determine qué SO invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
         </is>
       </c>
       <c r="E22" s="22" t="inlineStr">
@@ -1826,7 +1826,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1834,7 +1834,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1845,27 +1845,27 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Determinar el tipo de grupo de hosts que se va a usar</t>
+          <t>Si se va a utilizar una imagen personalizada, determine si existe un proceso de compilación automatizado.</t>
         </is>
       </c>
       <c r="D23" s="22" t="inlineStr">
         <is>
-          <t>Compartido/Agrupado o Dedicado/Personal</t>
+          <t xml:space="preserve">Si no existe nada, considere la posibilidad de usar Azure Image Builder para automatizar el proceso de compilación. </t>
         </is>
       </c>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1876,7 +1876,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/image-builder-overview</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46e-a5b8-6ad88844ce3b2</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1895,27 +1895,27 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Para el tipo de grupo de hosts personales, decida el tipo de asignación</t>
+          <t>Si se va a utilizar una imagen personalizada, ¿existe un plan para organizar y gestionar el ciclo de vida de las imágenes?</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es adecuada para el escenario en cuestión.</t>
+          <t>Evalúe la Galería de proceso de Azure.</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1926,7 +1926,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1934,7 +1934,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1945,22 +1945,22 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Para el tipo de grupo de hosts agrupados, decida el método de equilibrio de carga</t>
+          <t>Si se va a utilizar una imagen personalizada, consulte las prácticas recomendadas para AVD sobre cómo crear una imagen maestra</t>
         </is>
       </c>
       <c r="D25" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique cuál usar y las opciones disponibles, tenga en cuenta que si se usará el escalado automático, lo configura en amplitud primero. </t>
+          <t xml:space="preserve">Hay algunas mejores prácticas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E25" s="22" t="inlineStr">
@@ -1976,7 +1976,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1995,27 +1995,27 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes que se van a implementar </t>
+          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D26" s="22" t="inlineStr">
         <is>
-          <t>Según sus criterios de selección, ¿cuántos grupos de hosts necesitaría? Usted debe considerar tener varios si:? ¿Múltiples imágenes del sistema operativo? ¿Varias regiones? ¿Se requiere un HW diferente? ¿Diferente tipo de grupo de hosts (compartido vs. personal)? ¿Diferentes requisitos de usuario y SLA (usuarios principales, ejecutivos, trabajadores de Oficina vs. desarrolladores, etc.)? Diferentes configuraciones de RDP (aplicadas en el nivel del grupo de hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número requerido de máquinas virtuales en el grupo de hosts que superan las capacidades máximas</t>
+          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://learn.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
         </is>
       </c>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2026,7 +2026,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2045,27 +2045,27 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Ejecutar la prueba de rendimiento de la carga de trabajo para determinar la mejor SKU de máquina virtual de Azure y el tamaño que se debe usar (determinar el número de hosts por grupo)</t>
+          <t>Planificar/evaluar la estrategia de gestión de la configuración del host de sesión AVD</t>
         </is>
       </c>
       <c r="D27" s="22" t="inlineStr">
         <is>
-          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de 4 núcleos para producción por host de sesión (multisesión)</t>
+          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de la máquina virtual del grupo de hosts después de la implementación inicial, por ejemplo, SCCM, MEM/Intune, GPO, soluciones de 3rd-party.</t>
         </is>
       </c>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2076,14 +2076,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2094,27 +2094,27 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Verificar los límites de escalabilidad de AVD para el entorno</t>
+          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D28" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es fundamental verificar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. </t>
+          <t>Revise el artículo proporcionado y marque 'Redirección de carpetas conocidas' y 'Archivos a petición' Las características de OneDrive deben considerarse y, finalmente, adoptarse.</t>
         </is>
       </c>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2125,14 +2125,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2143,22 +2143,22 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Imagen/es dorada/s</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Determinar si los hosts de sesión requerirán GPU</t>
+          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D29" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia. </t>
+          <t>Asegúrese de revisar este artículo y usar la versión más reciente, revisar y evaluar las exclusiones de Teams para reducir el tamaño del perfil.</t>
         </is>
       </c>
       <c r="E29" s="22" t="inlineStr">
@@ -2174,14 +2174,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2192,27 +2192,27 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda usar SKU de máquina virtual capaces de aprovechar la característica de redes aceleradas en Azure.</t>
+          <t xml:space="preserve">No use la misma cuenta/recurso compartido de almacenamiento que los contenedores de perfil/Office </t>
         </is>
       </c>
       <c r="D30" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Hoy en día, el sistema operativo Windows Server es compatible (consulte la lista en el artículo), en el futuro el sistema operativo cliente de Windows también puede incluirse. </t>
+          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas de almacenamiento/recursos compartidos independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S del perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que estas opciones ofrecen el mejor valor entre costo y gastos generales de administración. </t>
         </is>
       </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2223,14 +2223,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2241,22 +2241,22 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Un inquilino de Azure Active Directory debe estar disponible con al menos una suscripción vinculada</t>
+          <t>Revisar las consideraciones de rendimiento para MSIX</t>
         </is>
       </c>
       <c r="D31" s="22" t="inlineStr">
         <is>
-          <t>Una suscripción de Azure debe ser parentesca al mismo inquilino de Azure AD, que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory o Azure AD DS.</t>
+          <t>En el artículo al que se hace referencia, informamos pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto AVD, asegúrese de revisarlo cuidadosamente.</t>
         </is>
       </c>
       <c r="E31" s="22" t="inlineStr">
@@ -2272,14 +2272,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2290,27 +2290,27 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Un bosque/dominio de Windows Server Active Directory está sincronizado con Azure Active Directory</t>
+          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
         </is>
       </c>
       <c r="D32" s="22" t="inlineStr">
         <is>
-          <t>Puede configurarlo mediante Azure AD Connect (para organizaciones híbridas) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube).</t>
+          <t>La conexión de la aplicación MSIX requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuentas de almacenamiento y permisos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
         </is>
       </c>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2321,7 +2321,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2329,7 +2329,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2340,22 +2340,22 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de la cuenta de usuario para conectarse a Windows Virtual Desktop</t>
+          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
         </is>
       </c>
       <c r="D33" s="22" t="inlineStr">
         <is>
-          <t>(1) El usuario debe provenir del mismo Active Directory que está conectado a Azure AD. Windows Virtual Desktop no admite cuentas B2B o MSA. (2) El UPN que usa para suscribirse a Windows Virtual Desktop debe existir en el dominio de Active Directory al que está unida la máquina virtual.</t>
+          <t>El proveedor de software de 3rd party debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
         </is>
       </c>
       <c r="E33" s="22" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2379,7 +2379,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2390,27 +2390,27 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de la máquina virtual para los hosts de sesión AVD que se crearán</t>
+          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
         </is>
       </c>
       <c r="D34" s="22" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales deben estar unidas a un dominio estándar o híbridas unidas a AD. Las máquinas virtuales no se pueden unir a Azure AD.</t>
+          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que debe deshabilitarse.</t>
         </is>
       </c>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2421,7 +2421,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2429,7 +2429,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>EA962A15-9394-46da-A7CC-3923266B2258</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2440,27 +2440,27 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar los Servicios de dominio de Azure Active Directory (AAD-DS) para AVD, asegúrese de revisar las limitaciones. </t>
+          <t>Revisar la compatibilidad con sistemas operativos</t>
         </is>
       </c>
       <c r="D35" s="22" t="inlineStr">
         <is>
-          <t>Comparar los Servicios de dominio de Active Directory autoadministrados, Azure Active Directory y los Servicios de dominio de Azure Active Directory administrados</t>
+          <t>Para aprovechar MSIX &amp; App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10 Enterprise o Windows 10 Enterprise Multi-session, versión 2004 o posterior.</t>
         </is>
       </c>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2471,7 +2471,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2479,7 +2479,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2490,22 +2490,22 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Host de sesión</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Crear al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts de AVD</t>
+          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D36" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomiendan los controladores de dominio de AD en Azure para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, de Azure NetApp Files y la integración de AD. ADC debe poder hablar con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe utilizar la conectividad local para llegar a los controladores de dominio de AD. </t>
+          <t>Una vez seleccionada la SKU de máquina virtual que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
         </is>
       </c>
       <c r="E36" s="22" t="inlineStr">
@@ -2521,7 +2521,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2529,7 +2529,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2540,27 +2540,27 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
+          <t>Determinación del tipo de grupo de hosts que se va a usar</t>
         </is>
       </c>
       <c r="D37" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
+          <t>Compartido/Agrupado o Dedicado/Personal</t>
         </is>
       </c>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2590,22 +2590,22 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Revisar el GPO de dominio que se aplicará a la unidad organizativa y que afectará a las funcionalidades de la máquina virtual del grupo de hosts</t>
+          <t>Para el tipo de grupo de hosts personales, decida el tipo de asignación</t>
         </is>
       </c>
       <c r="D38" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise detenidamente y, finalmente, bloquee/filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
+          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es apropiada para el escenario en cuestión.</t>
         </is>
       </c>
       <c r="E38" s="22" t="inlineStr">
@@ -2621,7 +2621,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2629,7 +2629,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2640,22 +2640,22 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
+          <t>Para Tipo de grupo de hosts agrupados, decida el método de equilibrio de carga</t>
         </is>
       </c>
       <c r="D39" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda tener una cuenta dedicada específica con permisos específicos y sin la limitación predeterminada de 10 uniones. </t>
+          <t xml:space="preserve">Compruebe cuál usar y las opciones disponibles, tenga en cuenta que si se utilizará el escalado automático, lo establece en amplitud primero. </t>
         </is>
       </c>
       <c r="E39" s="22" t="inlineStr">
@@ -2671,7 +2671,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2679,7 +2679,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2690,27 +2690,27 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios al que se concederá acceso a cada grupo de aplicaciones de grupo de hosts (DAG o RAG)</t>
+          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes para implementar </t>
         </is>
       </c>
       <c r="D40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y reprodúzcalos con ADC en Azure AD. </t>
+          <t>Según sus criterios de selección, ¿cuántos grupos de anfitriones necesitaría? Deberías considerar tener varios si:? ¿Múltiples imágenes del sistema operativo? ¿Varias regiones? ¿Se requiere un HW diferente? ¿Diferentes tipos de grupo de hosts (compartido vs. personal)? ¿Diferentes requisitos de usuario y SLA (usuarios principales, ejecutivos, trabajadores de oficina frente a desarrolladores, etc.)? Diferentes configuraciones de RDP (aplicadas a nivel de grupo de hosts), consulte https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número requerido de máquinas virtuales en el grupo de hosts que supera las capacidades máximas</t>
         </is>
       </c>
       <c r="E40" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2721,7 +2721,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2729,7 +2729,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2740,27 +2740,27 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Revisar la directiva de caducidad de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
+          <t>Ejecute una prueba de rendimiento de carga de trabajo para determinar el mejor SKU de máquina virtual de Azure y el tamaño que se debe usar (determinar el número de hosts por grupo)</t>
         </is>
       </c>
       <c r="D41" s="22" t="inlineStr">
         <is>
-          <t>Como parte del procedimiento para integrar Azure File Share y Active Directory authenticaton, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede optar por registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una edad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o en la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
+          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de 4 núcleos para producción por host de sesión (multisesión)</t>
         </is>
       </c>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2771,7 +2771,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2779,7 +2779,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2790,27 +2790,27 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Revisar la arquitectura de conectividad híbrida para el entorno local</t>
+          <t>Comprobar los límites de escalabilidad de AVD para el entorno</t>
         </is>
       </c>
       <c r="D42" s="22" t="inlineStr">
         <is>
-          <t>¿Qué tipo de conectividad híbrida? ¿Ruta exprés, VPN, NVA?</t>
+          <t xml:space="preserve">Es fundamental comprobar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2821,7 +2821,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2829,7 +2829,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2840,22 +2840,22 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Evalúe a qué recursos necesitarán acceder los usuarios desde los grupos de hosts de AVD a las instalaciones locales</t>
+          <t>Determinar si los hosts de sesión requerirán GPU</t>
         </is>
       </c>
       <c r="D43" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda vpn / ER sea suficiente y que la latencia sea tolerable. </t>
+          <t xml:space="preserve">Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia. </t>
         </is>
       </c>
       <c r="E43" s="22" t="inlineStr">
@@ -2871,7 +2871,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2879,7 +2879,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2890,27 +2890,27 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Revisar la topología de red de la zona de aterrizaje para el servicio AVD</t>
+          <t>Se recomienda usar SKU de máquina virtual capaces de aprovechar la característica de redes aceleradas en Azure.</t>
         </is>
       </c>
       <c r="D44" s="22" t="inlineStr">
         <is>
-          <t>Revise o recomiende uno nuevo donde colocar los grupos de hosts AVD basados en CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t xml:space="preserve">Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Hoy en día, los sistemas operativos Windows Server son compatibles (consulte la lista en el artículo), en el futuro el sistema operativo cliente de Windows también puede incluirse. </t>
         </is>
       </c>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2929,7 +2929,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2940,22 +2940,22 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la ubicación de la red virtual y la subred para varios grupos de hosts</t>
+          <t>Evaluar cuántos usuarios se conectarán a AVD y desde qué regiones</t>
         </is>
       </c>
       <c r="D45" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que cada subred tendrá suficiente espacio para escalar el grupo de hosts AVD. Para diferentes grupos de hosts, se recomienda utilizar subredes separadas si es posible. </t>
+          <t xml:space="preserve">Para una planificación e implementación adecuadas, es importante evaluar el número máximo de usuarios y el promedio de sesiones simultáneas. </t>
         </is>
       </c>
       <c r="E45" s="22" t="inlineStr">
@@ -2971,14 +2971,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2989,22 +2989,22 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD? </t>
+          <t>Determinar si todos los usuarios tendrán el mismo conjunto de aplicaciones y/o diferentes configuraciones de grupo de hosts y/o imágenes de sistema operativo</t>
         </is>
       </c>
       <c r="D46" s="22" t="inlineStr">
         <is>
-          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o NVA Firewall, NSG y/o Proxy. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD se encuentran aquí en https://aka.ms/AVDfirewall y aquí https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Asegúrese de revisar la lista completa de requisitos para el acceso a las URL AVD.</t>
+          <t xml:space="preserve">Es posible que se requieran varios grupos de hosts para admitir diferentes conjuntos de usuarios, se recomienda estimar cuántos serán necesarios. </t>
         </is>
       </c>
       <c r="E46" s="22" t="inlineStr">
@@ -3020,7 +3020,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/environment-setup</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -3028,7 +3028,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3039,27 +3039,27 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
+          <t>Evaluar las dependencias externas para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D47" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles. </t>
+          <t>Se deben evaluar y revisar las dependencias de recursos externos al grupo de AVD, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN y/o Express Route, servicios externos y componentes de 3rd-party. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
         </is>
       </c>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3070,7 +3070,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -3078,7 +3078,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3089,27 +3089,27 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Revisar UDR para la subred del grupo de hosts AVD</t>
+          <t>Revisar el sistema operativo del cliente utilizado y el tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D48" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se puede aplicar UDR personalizado a la subred del grupo de hosts AVD, por ejemplo, para redirigir a Azure Firewall o NVA. En este caso, se recomienda revisar cuidadosamente para garantizar que se utilice la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR, luego el tráfico del plano de administración AVD se puede incluir fácilmente en la lista blanca. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
         </is>
       </c>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3120,14 +3120,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3138,27 +3138,27 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
+          <t>Comprobar los requisitos de licencia</t>
         </is>
       </c>
       <c r="D49" s="22" t="inlineStr">
         <is>
-          <t>Las direcciones URL requeridas para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad desde los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Los clientes que tienen la licencia adecuada para ejecutar cargas de trabajo de Windows Virtual Desktop son elegibles para aplicar una licencia de Windows a sus máquinas virtuales host de sesión y ejecutarlas sin pagar por otra licencia.</t>
         </is>
       </c>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3169,14 +3169,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3187,27 +3187,27 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de la máquina virtual</t>
+          <t>Ejecute una prueba de concepto para probar la experiencia del usuario de extremo a extremo y verificar el impacto causado por la latencia de la red</t>
         </is>
       </c>
       <c r="D50" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
+          <t xml:space="preserve">Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno PoC pequeño. </t>
         </is>
       </c>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3218,7 +3218,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3226,7 +3226,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3237,27 +3237,27 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>Anfitrión de la sesión</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
+          <t xml:space="preserve">Determinar si los usuarios accederán a AVD utilizando escritorios completos y/o aplicaciones remotas </t>
         </is>
       </c>
       <c r="D51" s="22" t="inlineStr">
         <is>
-          <t>Una vez seleccionada la SKU de vm que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
+          <t xml:space="preserve">Determine si a los usuarios se les ofrecerán escritorios completos y/o grupos de aplicaciones remotas. </t>
         </is>
       </c>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3268,7 +3268,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3276,7 +3276,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3287,27 +3287,27 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts de AVD</t>
+          <t xml:space="preserve">¿Todos los usuarios tendrán la misma configuración de RDP? </t>
         </is>
       </c>
       <c r="D52" s="22" t="inlineStr">
         <is>
-          <t>Las aplicaciones se pueden preinstalar en la/s imagen/es dorada/s, se pueden adjuntar mediante la función MSIX y AppAttach o distribuirse a los hosts después de la implementación del grupo utilizando métodos tradicionales de distribución de SW.</t>
+          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario o grupo.</t>
         </is>
       </c>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3318,7 +3318,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3326,7 +3326,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3337,22 +3337,22 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Estimar el número de imágenes doradas que se requerirán</t>
+          <t>Evaluar RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
         </is>
       </c>
       <c r="D53" s="22" t="inlineStr">
         <is>
-          <t>¿Usarán el enmascaramiento de aplicaciones fslogix que se prestaría a una sola imagen, o imágenes múltiples con diferentes aplicaciones incorporadas: ¿qué es lo que requiere que se use más de una imagen?</t>
+          <t>RDP Shortpath para redes administradas es una característica de Azure Virtual Desktop que establece un transporte directo basado en UDP entre el cliente de Escritorio remoto y el host de sesión. La eliminación del relé adicional reduce el tiempo de ida y vuelta, lo que mejora la experiencia del usuario con aplicaciones y métodos de entrada sensibles a la latencia. Para admitir RDP Shortpath, el cliente de Azure Virtual Desktop necesita una línea de visión directa al host de sesión y debe ejecutar Windows 10 o Windows 7 y tener instalado el cliente de escritorio de Windows.</t>
         </is>
       </c>
       <c r="E53" s="22" t="inlineStr">
@@ -3368,14 +3368,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3386,27 +3386,27 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué imagen o imágenes del sistema operativo usará para la implementación del grupo de hosts</t>
+          <t>Determine en qué región o grupos de hosts AVD de Azure se implementarán.</t>
         </is>
       </c>
       <c r="D54" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué so invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
+          <t>AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente.</t>
         </is>
       </c>
       <c r="E54" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3417,7 +3417,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3425,7 +3425,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3436,27 +3436,27 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, ¿determinar si existe un proceso de compilación automatizado?</t>
+          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
         </is>
       </c>
       <c r="D55" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si no existe nada, considere la posibilidad de usar Azure Image Builder para automatizar el proceso de compilación. </t>
+          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planee la conectividad necesaria. </t>
         </is>
       </c>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3467,14 +3467,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3485,27 +3485,27 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, ¿existe un plan para organizar y gestionar el ciclo de vida de sus imágenes?</t>
+          <t>¿Evaluó la latencia entre la ubicación de los usuarios y la infraestructura de Azure AVD?</t>
         </is>
       </c>
       <c r="D56" s="22" t="inlineStr">
         <is>
-          <t>Evalúe la Galería de proceso de Azure.</t>
+          <t xml:space="preserve">Ejecute la herramienta 'Windows Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima. </t>
         </is>
       </c>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3516,14 +3516,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3534,22 +3534,22 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, consulte las prácticas recomendadas para AVD sobre cómo crear una imagen maestra</t>
+          <t>Determinar la ubicación de metadatos para el servicio AVD</t>
         </is>
       </c>
       <c r="D57" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay algunas prácticas recomendadas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia. </t>
+          <t xml:space="preserve">AVD almacena metadatos solo para ejecutar el servicio en ubicaciones geográficas específicas, determinar qué está disponible hoy y, si es adecuado, según los requisitos del cliente. </t>
         </is>
       </c>
       <c r="E57" s="22" t="inlineStr">
@@ -3565,14 +3565,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3583,27 +3583,27 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
+          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños de máquina virtual específicos en las regiones seleccionadas</t>
         </is>
       </c>
       <c r="D58" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
+          <t xml:space="preserve">Compruebe si hay SKU de máquina virtual específicas, especialmente si necesita GPU o SKU de especificaciones altas y, finalmente, la disponibilidad de Azure NetApp Files si se usa. </t>
         </is>
       </c>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3614,14 +3614,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3632,27 +3632,27 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Planificar/evaluar la estrategia de administración de la configuración del host de sesión AVD</t>
+          <t>Comprobar la disponibilidad de la zona de disponibilidad (AZ) en la región seleccionada</t>
         </is>
       </c>
       <c r="D59" s="22" t="inlineStr">
         <is>
-          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de máquinas virtuales del grupo de hosts después de la implementación inicial, por ejemplo, SCCM, MEM/Intune, GPO, soluciones de terceros.</t>
+          <t>Consulte la sección BCDR para obtener más detalles.</t>
         </is>
       </c>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3663,14 +3663,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://learn.microsoft.com/azure/availability-zones/az-region</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3681,22 +3681,22 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
+          <t>Creación de al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D60" s="22" t="inlineStr">
         <is>
-          <t>Revise el artículo proporcionado y marque las características de OneDrive 'Redirección de carpetas conocidas' y 'Archivos onDemand' deben considerarse y, finalmente, adoptarse.</t>
+          <t xml:space="preserve">Se recomiendan los controladores de dominio de AD en Azure para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, para la integración de Azure NetApp Files y AD. ADC debe poder comunicarse con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe usar la conectividad local para llegar a los controladores de dominio de AD. </t>
         </is>
       </c>
       <c r="E60" s="22" t="inlineStr">
@@ -3712,14 +3712,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3730,27 +3730,27 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
+          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D61" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de revisar este artículo y usar la última versión, revise y evalúe las exclusiones de Teams para reducir el tamaño del perfil.</t>
+          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
         </is>
       </c>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3761,14 +3761,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3779,27 +3779,27 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No use la misma cuenta/recurso compartido de almacenamiento que los contenedores de profile/Office </t>
+          <t>Revisar el GPO de dominio que se aplicará a la unidad organizativa y que afecta a las funcionalidades de la máquina virtual del grupo de hosts</t>
         </is>
       </c>
       <c r="D62" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas/recursos compartidos de almacenamiento independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S de perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que esas opciones ofrecen el mejor valor entre el costo y la sobrecarga de administración. </t>
+          <t xml:space="preserve">Revise cuidadosamente y, finalmente, bloquee o filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
         </is>
       </c>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -3810,14 +3810,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3828,27 +3828,27 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Revisar las consideraciones de rendimiento para MSIX</t>
+          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
         </is>
       </c>
       <c r="D63" s="22" t="inlineStr">
         <is>
-          <t>En el artículo al que se hace referencia, informamos de pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto de AVD, asegúrese de revisar cuidadosamente.</t>
+          <t xml:space="preserve">Se recomienda tener una cuenta dedicada específica con permisos específicos y sin la limitación predeterminada de 10 uniones. </t>
         </is>
       </c>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3859,7 +3859,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3867,7 +3867,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3878,22 +3878,22 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
+          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios a los que se concederá acceso a cada grupo de aplicaciones del grupo de servidores host (DAG o RAG)</t>
         </is>
       </c>
       <c r="D64" s="22" t="inlineStr">
         <is>
-          <t>MsiX app attach requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, para los hosts de sesión, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuenta de almacenamiento y de uso compartido de archivos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
+          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y replíquelos con ADC en Azure AD. </t>
         </is>
       </c>
       <c r="E64" s="22" t="inlineStr">
@@ -3909,7 +3909,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3917,7 +3917,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3928,27 +3928,27 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
+          <t>Revisión de la directiva de expiración de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
         </is>
       </c>
       <c r="D65" s="22" t="inlineStr">
         <is>
-          <t>El proveedor de software de 3ª parte debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
+          <t>Como parte del procedimiento para integrar el recurso compartido de archivos de Azure y la autenticación de Active Directory, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede elegir registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte Preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una antigüedad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
         </is>
       </c>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3959,7 +3959,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3967,7 +3967,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3978,27 +3978,27 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
+          <t>Un inquilino de Azure Active Directory debe estar disponible con al menos una suscripción vinculada</t>
         </is>
       </c>
       <c r="D66" s="22" t="inlineStr">
         <is>
-          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que debe deshabilitarse.</t>
+          <t>Una suscripción de Azure debe ser primaria al mismo inquilino de Azure AD, que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory o Azure AD DS.</t>
         </is>
       </c>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4009,14 +4009,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -4027,27 +4027,27 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Revisar la compatibilidad con sistemas operativos</t>
+          <t>Un bosque/dominio de Windows Server Active Directory está sincronizado con Azure Active Directory</t>
         </is>
       </c>
       <c r="D67" s="22" t="inlineStr">
         <is>
-          <t>Para aprovechar MSIX y App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10 Enterprise o Windows 10 Enterprise Multisesión, versión 2004 o posterior.</t>
+          <t>Puede configurarlo mediante Azure AD Connect (para organizaciones híbridas) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube).</t>
         </is>
       </c>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4058,7 +4058,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -4066,7 +4066,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4077,22 +4077,22 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anfitrión de la sesión </t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar qué tipo de disco administrado se usará para los hosts de sesión  </t>
+          <t>Compruebe los requisitos de la cuenta de usuario para conectarse a Windows Virtual Desktop</t>
         </is>
       </c>
       <c r="D68" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD estándar, SSD estándar o SSD premium, los discos efímeros no son compatibles, no se recomiendan los discos ultra. Se recomienda evaluar el disco Premium para el sistema operativo si la densidad de usuarios no es baja y si va a utilizar Cloud Cache. </t>
+          <t>(1) El usuario debe provenir del mismo Active Directory que está conectado a Azure AD. Windows Virtual Desktop no admite cuentas B2B o MSA. (2) El UPN que use para suscribirse a Windows Virtual Desktop debe existir en el dominio de Active Directory al que está unida la máquina virtual.</t>
         </is>
       </c>
       <c r="E68" s="22" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4127,27 +4127,27 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Determinar qué solución de back-end de almacenamiento se usará para FSLogix Profile y Office Containers</t>
+          <t>Compruebe los requisitos de VM para los hosts de sesión AVD que se crearán</t>
         </is>
       </c>
       <c r="D69" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, servidor de archivos basado en máquina virtual. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. NetApp solo suele ser necesario para entornos a gran escala o de alto rendimiento. </t>
+          <t>Las máquinas virtuales deben estar unidas a un dominio estándar o híbridas a AD. Las máquinas virtuales no se pueden unir a Azure AD.</t>
         </is>
       </c>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4158,7 +4158,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -4166,7 +4166,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4177,22 +4177,22 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la posibilidad de separar los contenedores de perfiles de los contenedores de Office</t>
+          <t xml:space="preserve">Antes de usar los Servicios de dominio de Azure Active Directory (AAD-DS) para AVD, asegúrese de revisar las limitaciones. </t>
         </is>
       </c>
       <c r="D70" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La recomendación de Escritorio virtual de Windows es usar el contenedor de perfiles sin contenedor de Office a menos que esté planeando escenarios específicos de continuidad del negocio y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Comparación de Servicios de dominio de Active Directory autoadministrados, Azure Active Directory y Servicios de dominio de Azure Active Directory administrados</t>
         </is>
       </c>
       <c r="E70" s="22" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -4216,7 +4216,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4227,27 +4227,27 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los límites de escalabilidad del almacenamiento para admitir los requisitos del grupo de hosts</t>
+          <t>Evaluar el requisito de la capacidad de escalado automático del grupo de hosts</t>
         </is>
       </c>
       <c r="D71" s="22" t="inlineStr">
         <is>
-          <t>Como punto de partida para estimar los requisitos de rendimiento del almacenamiento de contenedores de perfiles, recomendamos asumir 10 IOPS por usuario en el estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión.</t>
+          <t xml:space="preserve">La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de la máquina virtual del host de sesión. Puede usar la herramienta de escalado para programar máquinas virtuales para que se inicien y detengan en función de las horas comerciales pico y fuera de pico, escalar horizontalmente máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas de menor actividad, dejando en ejecución el número mínimo de máquinas virtuales host de sesión. Aún no está disponible para el tipo de grupo de hosts personales, se recomienda tener una configuración independiente para cada grupo de hosts. </t>
         </is>
       </c>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4258,7 +4258,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4266,7 +4266,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4277,27 +4277,27 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Si se utiliza el almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
+          <t>Comprobar periódicamente las recomendaciones de Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D72" s="22" t="inlineStr">
         <is>
-          <t>Si se requiere una segunda región para fines de recuperación ante desastres, verifique también la disponibilidad de NetApp allí.</t>
+          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar sus recursos de Azure para ofrecer confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
         </is>
       </c>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4308,7 +4308,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-advisor</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4316,7 +4316,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4327,27 +4327,27 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles FSLogix deben estar en la misma ubicación del centro de datos.</t>
+          <t>Planeación de una estrategia de administración de actualizaciones de imágenes doradas</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
+          <t>Prepare una estrategia para administrar las actualizaciones de las imágenes doradas, por ejemplo, para aplicar revisiones de seguridad y/o actualizar las aplicaciones instaladas dentro de la imagen. Azure Image Builder Service es una solución de 1ª parte para automatizar la compilación y personalización de máquinas virtuales. Las plantillas de ARM se pueden usar para crear nuevos hosts y, a continuación, retirar los antiguos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool El enfoque recomendado es crear un nuevo grupo en paralelo, más fácil de revertir, no utilizable para un grupo dedicadoRe-implementar y aumentar el número de máquinas virtuales con la plantilla ARM también es una opción viable. Los clientes también pueden querer utilizar los métodos de distribución de software existentes para actualizar la imagen sin volver a implementarla, por ejemplo, con SCCM o similar.</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4366,7 +4366,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4377,22 +4377,22 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
+          <t>Planeación de una estrategia de actualización y revisión del host de sesión</t>
         </is>
       </c>
       <c r="D74" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de configurar las siguientes exclusiones antivirus para los discos duros virtuales FSLogix Profile Container, como se documenta en el artículo al que se hace referencia.</t>
+          <t xml:space="preserve">Los clientes pueden tener varias opciones:- Microsoft Endpoint Configuration Manager, en este artículo se explica cómo configurar Microsoft Endpoint Configuration Manager para aplicar automáticamente actualizaciones a un host de Windows Virtual Desktop que ejecuta Windows 10 Enterprise multisesión: https://learn.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services ( WSUS)- 3rd Party that supports your OS.- Azure Update Management (Azure Automation), hoy no compatible con el sistema operativo cliente: https://learn.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt recomienda alejarse de una estrategia de aplicación de parches y pasar a una estrategia de recreación de imágenes si es posible. </t>
         </is>
       </c>
       <c r="E74" s="22" t="inlineStr">
@@ -4408,7 +4408,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4416,7 +4416,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4427,27 +4427,27 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
+          <t>Evaluar el requisito de un entorno canario de prueba AVD</t>
         </is>
       </c>
       <c r="D75" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La configuración básica y recomendada predeterminada está aquí: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Consulte aquí el conjunto principal: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aquí para obtener una referencia completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Los grupos de servidores host son una colección de una o más máquinas virtuales idénticas dentro del entorno de Windows Virtual Desktop. Se recomienda encarecidamente crear un grupo de hosts de validación donde se apliquen primero las actualizaciones de servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o de no validación.</t>
         </is>
       </c>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4477,27 +4477,27 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Comprobar el uso de conexiones simultáneas o múltiples al mismo perfil</t>
+          <t>Determinación de la estrategia de implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>Se desaconsejan las conexiones simultáneas o múltiples en Windows Virtual Desktop. La práctica recomendada es crear una ubicación de perfil diferente para cada sesión (como grupo de hosts).</t>
+          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas de ARM, herramienta CLI de Azure, PowerShell, creación manual de máquinas virtuales con token de registro, Terraform, etc. Es importante adoptar método(s) adecuados/s para soportar la implementación automática a través de herramientas de automatización y CI/CD.</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4508,7 +4508,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4516,7 +4516,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4527,27 +4527,27 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Revise las prácticas recomendadas y las consideraciones clave para el tamaño del almacenamiento de información</t>
+          <t>Activar las máquinas virtuales regularmente cada 90 días para la actualización de tokens</t>
         </is>
       </c>
       <c r="D77" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como estimación general, para ser validado en un entorno de prueba, para cada usuario se deben considerar primero de 5 a 15 IOPS, dependiendo de la carga de trabajo. Azure Files: IOPS premium máximas de 100 k por recurso compartido (máximo 100 TB) y hasta 5 Gbps con latencia de 3 ms. Tenga en cuenta cómo se aprovisiona Azure Files, es decir, IOPS estrictamente vinculadas t'o TAMAÑO aprovisionado. Capacidad de tamaño de ráfaga en algunos casos. Asegúrese de aprovisionar por adelantado más espacio del requerido para asegurarse de tener suficientes IOPS. NOTA: Azure Premium puede ser más barato que Standard porque no paga transacciones, luego debe tener en cuenta los detalles importantes. Azure NetApp Files: recuerde un máximo de 1000 DIRECCION IP conectadas, puede ajustar las IOPS sobre la marcha, capacidad aprovisionada mínima de 4 TB. </t>
+          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio Windows Virtual Desktop, el agente actualiza regularmente el token de la máquina virtual siempre que la máquina virtual está activa. El certificado para el token de registro es válido durante 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
         </is>
       </c>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4577,27 +4577,27 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Comprobar los procedimientos recomendados para Azure Files (si se usa)</t>
+          <t>Habilitación de la supervisión de Azure para AVD</t>
         </is>
       </c>
       <c r="D78" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t>Azure Monitor para Windows Virtual Desktop es un panel basado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Windows Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Windows Virtual Desktop para supervisar los entornos de Windows Virtual Desktop.</t>
         </is>
       </c>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4608,7 +4608,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-monitor</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4616,7 +4616,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4627,22 +4627,22 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Compruebe las prácticas recomendadas para los archivos de NetApp (si se utilizan)</t>
+          <t>Habilitar y redirigir la configuración de diagnóstico para áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host al área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t xml:space="preserve">Windows Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas como muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se divide en las siguientes categorías: Administración, Fuente, Conexiones, Registro de host, Errores, Puntos de control. </t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4658,7 +4658,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4666,7 +4666,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4677,27 +4677,27 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
+          <t>Crear alertas en el almacenamiento del perfil para recibir alertas en caso de uso elevado y limitación</t>
         </is>
       </c>
       <c r="D80" s="22" t="inlineStr">
         <is>
-          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se prevén contenedores de perfiles grandes y los clientes desean intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil FSLogix.</t>
+          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://learn.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4708,7 +4708,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4716,7 +4716,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4727,22 +4727,22 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Si se utiliza FSLogix Cloud Cache, mueva el directorio Cache a la unidad temporal.</t>
+          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D81" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache utiliza el disco local como caché y puede generar mucha presión en el disco de la máquina virtual. Se recomienda aprovechar la potencia del disco de máquina virtual temporal (y conectado localmente), si es posible en función de la SKU de la máquina virtual. </t>
+          <t>Puede usar Azure Service Health para supervisar problemas de servicio y avisos de mantenimiento para Windows Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerle actualizado a medida que se resuelve el problema.</t>
         </is>
       </c>
       <c r="E81" s="22" t="inlineStr">
@@ -4758,7 +4758,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4766,7 +4766,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4777,22 +4777,22 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Revise el uso de la redirección FSLogix.</t>
+          <t>Revisar la arquitectura de conectividad híbrida para el entorno local</t>
         </is>
       </c>
       <c r="D82" s="22" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen desde el contenedor de perfiles a la unidad C:. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno en el que se pretende aplicar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
+          <t>¿Qué tipo de conectividad híbrida? ¿Ruta Express, VPN, NVA?</t>
         </is>
       </c>
       <c r="E82" s="22" t="inlineStr">
@@ -4808,7 +4808,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4816,7 +4816,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4827,27 +4827,27 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de AD en la conexión de AD.</t>
+          <t>Evaluar qué recursos necesitarán los usuarios para acceder desde grupos de hosts AVD a las instalaciones</t>
         </is>
       </c>
       <c r="D83" s="22" t="inlineStr">
         <is>
-          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred ANF y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
+          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda VPN/ER sea suficiente y que la latencia sea tolerable. </t>
         </is>
       </c>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4858,7 +4858,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4866,7 +4866,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4877,27 +4877,27 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que los usuarios de AVD no tendrán privilegios de administrador local en los hosts de AVD. </t>
+          <t>Revisar la topología de red de la zona de aterrizaje para el servicio AVD</t>
         </is>
       </c>
       <c r="D84" s="22" t="inlineStr">
         <is>
-          <t>Le recomendamos que no conceda a sus usuarios acceso de administrador a los escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración como Microsoft Endpoint Manager. En un entorno de varias sesiones, le recomendamos que no permita que los usuarios instalen software directamente.</t>
+          <t>Revise o recomiende uno nuevo donde colocar grupos de hosts AVD basados en CAF (vWAN vs. Hub &amp; Spoke)</t>
         </is>
       </c>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4908,7 +4908,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4916,7 +4916,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4927,27 +4927,27 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza la solución antivirus y antimalware</t>
+          <t>Evaluación de la ubicación de redes virtuales y subredes para varios grupos de servidores host</t>
         </is>
       </c>
       <c r="D85" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Endpoint ahora admite Windows Virtual Desktop para Windows 10 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Asegúrese de que cada subred tenga suficiente espacio para escalar el grupo de hosts AVD. Para diferentes grupos de hosts, se recomienda usar subredes independientes si es posible. </t>
         </is>
       </c>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4958,7 +4958,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4966,7 +4966,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4977,27 +4977,27 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que se implementen las exclusiones AV adecuadas</t>
+          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD? </t>
         </is>
       </c>
       <c r="D86" s="22" t="inlineStr">
         <is>
-          <t>Asegúrese de que existan las siguientes exclusiones: https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o NVA Firewall, NSG y/o Proxy. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD están aquí en https://aka.ms/AVDfirewall y aquí https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Asegúrese de revisar la lista completa de requisitos para el acceso a las URL de AVD.</t>
         </is>
       </c>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5008,7 +5008,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
+          <t>https://aka.ms/AVDfirewall</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -5016,7 +5016,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -5027,27 +5027,27 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Evaluar los requisitos de cifrado de disco para hosts AVD</t>
+          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
         </is>
       </c>
       <c r="D87" s="22" t="inlineStr">
         <is>
-          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con las claves administradas por Microsoft. El cifrado del disco del sistema operativo de la máquina virtual host es posible y compatible con ADE y DES: los datos de usuario sensibles y permanentes no deben almacenarse en el disco host de sesión, luego deben usarse solo si es estrictamente necesario por razones de cumplimiento. El cifrado del almacenamiento de FSLogix con Azure Files se puede realizar mediante SSE en Azure Storage.Para el cifrado de OneDrive, consulte este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Tenga en cuenta el uso de Azure Defender Endpoint para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles. </t>
         </is>
       </c>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5058,7 +5058,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -5066,7 +5066,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5077,27 +5077,27 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>¿Necesita controlar/restringir la navegación por Internet del usuario desde los hosts de sesión AVD?</t>
+          <t>Revisar UDR para la subred del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D88" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario. </t>
+          <t xml:space="preserve">UDR personalizado se puede aplicar a la subred del grupo de hosts de AVD, por ejemplo, para redirigir a Azure Firewall o NVA. En este caso se recomienda revisar cuidadosamente para asegurarse de que se utiliza la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR, luego el tráfico del plano de administración de AVD se puede incluir fácilmente en la lista blanca. https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
         </is>
       </c>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -5116,7 +5116,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5127,27 +5127,27 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Azure Security Center (ASC) para hosts de sesión AVD</t>
+          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
         </is>
       </c>
       <c r="D89" s="22" t="inlineStr">
         <is>
-          <t>Se recomienda habilitar Azure Security Center Standard para suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento. Con Azure Security Center Standard es posible evaluar y administrar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD.</t>
+          <t>Las URL necesarias para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad desde los hosts de sesión: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
         </is>
       </c>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5158,7 +5158,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -5166,7 +5166,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5177,27 +5177,27 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Revisar los GPO de Active Directory para proteger las sesiones RDP</t>
+          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de máquina virtual</t>
         </is>
       </c>
       <c r="D90" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se debe utilizar, por ejemplo, para imponer el bloqueo del escritorio y la terminación de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse para proteger también los hosts AVD. </t>
+          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
         </is>
       </c>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5208,7 +5208,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -5216,7 +5216,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5232,22 +5232,22 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso de MFA para usuarios de AVD</t>
+          <t xml:space="preserve">Asegúrese de que los usuarios de AVD no tengan privilegios de administrador local en los hosts AVD. </t>
         </is>
       </c>
       <c r="D91" s="22" t="inlineStr">
         <is>
-          <t>Para obtener información y detalles adicionales, consulte este artículo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>Le recomendamos que no conceda a los usuarios acceso de administrador a escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración como Microsoft Endpoint Manager. En un entorno multisesión, le recomendamos que no permita que los usuarios instalen software directamente.</t>
         </is>
       </c>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5258,7 +5258,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -5266,7 +5266,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5282,22 +5282,22 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el uso del acceso condicional para los usuarios</t>
+          <t>Asegúrese de que se utiliza una solución antivirus y antimalware</t>
         </is>
       </c>
       <c r="D92" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el acceso condicional le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno de Windows Virtual Desktop. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está utilizando.</t>
+          <t>Microsoft Defender para Endpoint ahora admite Windows Virtual Desktop para Windows 10 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://learn.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5308,7 +5308,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -5316,7 +5316,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5332,22 +5332,22 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Habilitar el registro de diagnóstico y auditoría en el área de trabajo central de Log Analytics</t>
+          <t>Asegúrese de que las exclusiones AV adecuadas estén en su lugar</t>
         </is>
       </c>
       <c r="D93" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habilitar la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Windows Virtual Desktop. Esto también es un requisito para eanble y utilizar la herramienta avD Monitoring. Muy recomendable para habilitar. </t>
+          <t>Asegúrese de que existan las siguientes exclusiones: https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
         </is>
       </c>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD </t>
+          <t>Evaluar los requisitos de cifrado de disco para hosts AVD</t>
         </is>
       </c>
       <c r="D94" s="22" t="inlineStr">
         <is>
-          <t>AVD usa controles de acceso basados en roles (RBAC) de Azure para asignar roles a usuarios y administradores. Estos roles dan permiso a los administradores para llevar a cabo ciertas tareas. Si se requiere la separación de tareas, Escritorio virtual de Windows tiene roles adicionales que le permiten separar los roles de administración para grupos de hosts, grupos de aplicaciones y áreas de trabajo. Esta separación le permite tener un control más granular sobre las tareas administrativas. Estos roles se nombran de conformidad con los roles estándar de Azure y la metodología de privilegios mínimos.</t>
+          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con claves administradas por Microsoft. El cifrado de disco del sistema operativo de la máquina virtual host es posible y compatible con ADE y DES: los datos de usuario sensibles y persistentes no deben almacenarse en el disco host de sesión, luego deben usarse solo si es estrictamente necesario por razones de cumplimiento. El cifrado del almacenamiento FSLogix con Azure Files se puede realizar mediante SSE en Azure Storage.Para el cifrado de OneDrive, consulte este artículo: https://learn.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E94" s="22" t="inlineStr">
@@ -5408,7 +5408,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5416,7 +5416,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5432,17 +5432,17 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Revise todas las prácticas recomendadas de seguridad para el entorno AVD</t>
+          <t>¿Necesita controlar/restringir la navegación del usuario por Internet desde los hosts de sesión AVD?</t>
         </is>
       </c>
       <c r="D95" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un conjunto completo de mejores prácticas y recomendaciones de seguridad están contenidas en el artículo referenciado, se recomienda revisar. </t>
+          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario. </t>
         </is>
       </c>
       <c r="E95" s="22" t="inlineStr">
@@ -5458,7 +5458,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5466,7 +5466,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5477,27 +5477,27 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Habilitar la supervisión de Azure para AVD</t>
+          <t>Evaluación del uso de Azure Security Center (ASC) para hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D96" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor para Windows Virtual Desktop es un panel creado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Windows Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Windows Virtual Desktop para supervisar los entornos de Windows Virtual Desktop.</t>
+          <t>Se recomienda habilitar Azure Security Center Standard para suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento. Con Azure Security Center Standard es posible evaluar y administrar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD.</t>
         </is>
       </c>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5508,7 +5508,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5516,7 +5516,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5527,22 +5527,22 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Habilitar y redirigir la configuración de diagnóstico de áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host al área de trabajo de Log Analytics</t>
+          <t>Revisar los GPO de Active Directory para proteger las sesiones RDP</t>
         </is>
       </c>
       <c r="D97" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas, al igual que muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se encuentra en las siguientes categorías: Administración, Feed, Conexiones, Registro de host, Errores, Puntos de control. </t>
+          <t xml:space="preserve">Debe utilizarse, por ejemplo, para imponer el bloqueo del escritorio y la terminación de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse para proteger también los hosts AVD. </t>
         </is>
       </c>
       <c r="E97" s="22" t="inlineStr">
@@ -5558,7 +5558,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I97" s="16" t="n"/>
@@ -5566,7 +5566,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5577,27 +5577,27 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Cree alertas sobre el almacenamiento de perfiles que se van a alertar en caso de alto uso y limitación</t>
+          <t>Evaluar el uso de MFA para usuarios de AVD</t>
         </is>
       </c>
       <c r="D98" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>Para obtener detalles e información adicionales, consulte este artículo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
         </is>
       </c>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5608,7 +5608,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="I98" s="16" t="n"/>
@@ -5616,7 +5616,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5627,27 +5627,27 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
+          <t>Evaluar el uso del acceso condicional para los usuarios</t>
         </is>
       </c>
       <c r="D99" s="22" t="inlineStr">
         <is>
-          <t>Puede usar Azure Service Health para supervisar los problemas de servicio y los avisos de mantenimiento de Windows Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerlo actualizado a medida que se resuelve el problema.</t>
+          <t>La habilitación del acceso condicional le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno de Windows Virtual Desktop. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está usando.</t>
         </is>
       </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5658,7 +5658,7 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I99" s="16" t="n"/>
@@ -5666,7 +5666,7 @@
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5677,27 +5677,27 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de la capacidad de escalado automático del grupo de hosts</t>
+          <t>Habilitar el registro de diagnóstico y auditoría en el área de trabajo central de Log Analytics</t>
         </is>
       </c>
       <c r="D100" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de su máquina virtual de host de sesión. Puede usar la herramienta de escalado para programar el inicio y la detención de máquinas virtuales en función de las horas laborables pico y fuera de hora punta, escalar horizontalmente las máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas valle, dejando el número mínimo de máquinas virtuales host de sesión en ejecución. Todavía no está disponible para el tipo de grupo de host personal, se recomienda tener una configuración independiente para cada grupo de hosts. </t>
+          <t xml:space="preserve">Habilitar la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Windows Virtual Desktop. Este es también un requisito para habilitar y utilizar la herramienta de monitoreo AVD. Muy recomendable para habilitar. </t>
         </is>
       </c>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5708,7 +5708,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I100" s="16" t="n"/>
@@ -5716,7 +5716,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5727,22 +5727,22 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Compruebe periódicamente las recomendaciones de Azure Advisor para AVD</t>
+          <t xml:space="preserve">Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD </t>
         </is>
       </c>
       <c r="D101" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar los recursos de Azure en cuanto a confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
+          <t>AVD usa controles de acceso basados en rol (RBAC) de Azure para asignar roles a usuarios y administradores. Estos roles dan permiso a los administradores para llevar a cabo ciertas tareas. Si se requiere separación de tareas, Windows Virtual Desktop tiene funciones adicionales que permiten separar las funciones de administración para grupos host, grupos de aplicaciones y áreas de trabajo. Esta separación le permite tener un control más granular sobre las tareas administrativas. Estos roles se denominan de conformidad con los roles estándar y la metodología de privilegios mínimos de Azure.</t>
         </is>
       </c>
       <c r="E101" s="22" t="inlineStr">
@@ -5758,7 +5758,7 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="I101" s="16" t="n"/>
@@ -5766,7 +5766,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5777,22 +5777,22 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Planificar una estrategia de gestión de actualización de imágenes doradas</t>
+          <t>Revisar todas las prácticas recomendadas de seguridad para el entorno AVD</t>
         </is>
       </c>
       <c r="D102" s="22" t="inlineStr">
         <is>
-          <t>Prepare una estrategia para administrar las actualizaciones de las imágenes doradas, por ejemplo, para aplicar revisiones de seguridad y/o actualizar las aplicaciones instaladas dentro de la imagen. Azure Image Builder Service es una solución de 1.ª parte para automatizar la compilación y la personalización de máquinas virtuales.Las plantillas de ARM se pueden usar para crear nuevos hosts y, a continuación, retirar los antiguos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool El enfoque recomendado es crear un nuevo grupo en paralelo, más fácil de revertir, no utilizable para grupos dedicados. Es posible que los clientes también deseen utilizar los métodos de distribución de software existentes para actualizar la imagen sin volver a implementarla, para exampel con SCCM o similar.</t>
+          <t xml:space="preserve">Un conjunto completo de mejores prácticas de seguridad y recomendaciones se encuentran en el artículo al que se hace referencia, se recomienda revisar. </t>
         </is>
       </c>
       <c r="E102" s="22" t="inlineStr">
@@ -5808,7 +5808,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5816,7 +5816,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5827,27 +5827,27 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Planeación de una estrategia de parches y actualizaciones de Host de sesión</t>
+          <t>Determinar qué solución back-end de almacenamiento se usará para FSLogix Profile y Office Containers</t>
         </is>
       </c>
       <c r="D103" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los clientes pueden tener varias opciones:- Microsoft Endpoint Configuration Manager, este artículo explica cómo configurar Microsoft Endpoint Configuration Manager para aplicar automáticamente actualizaciones a un host de Windows Virtual Desktop que ejecuta Windows 10 Enterprise multisesión: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª parte que admite su sistema operativo.- Azure Update Management (Azure Automation), hoy no compatible con el sistema operativo cliente: se recomienda https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt alejarse de una estrategia de aplicación de revisiones y pasar a una estrategia de creación de imágenes si es posible. </t>
+          <t xml:space="preserve">Azure NetApp Files, Azure Files, servidor de archivos basado en VM. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. Por lo general, NetApp solo se requiere para entornos de gran escala / alto rendimiento. </t>
         </is>
       </c>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5858,7 +5858,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5866,7 +5866,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5877,22 +5877,22 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito para un entorno canario de prueba AVD</t>
+          <t>Evaluar la posibilidad de separar los contenedores de perfiles de los contenedores de Office</t>
         </is>
       </c>
       <c r="D104" s="22" t="inlineStr">
         <is>
-          <t>Los grupos de hosts son una colección de una o más máquinas virtuales idénticas dentro del entorno de Windows Virtual Desktop. Le recomendamos encarecidamente que cree un grupo de hosts de validación donde se apliquen primero las actualizaciones del servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o no de validación.</t>
+          <t xml:space="preserve">La recomendación de Windows Virtual Desktop es usar el contenedor de perfiles sin el contenedor de Office, a menos que esté planeando escenarios específicos de continuidad empresarial y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E104" s="22" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5916,7 +5916,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5927,27 +5927,27 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Determinar la estrategia de implementación del grupo de hosts</t>
+          <t>Verificar los límites de escalabilidad del almacenamiento para admitir los requisitos del grupo de hosts</t>
         </is>
       </c>
       <c r="D105" s="22" t="inlineStr">
         <is>
-          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas arm, herramienta cli de Azure, Powershell, creación manual de máquinas virtuales con token de registro, Terraform, etc. Es importante adoptar métodos adecuados para admitir la implementación automática a través de herramientas de automatización y CI/CD.</t>
+          <t>Como punto de partida para estimar los requisitos de rendimiento de almacenamiento de contenedores de perfiles, se recomienda asumir 10 IOPS por usuario en estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión.</t>
         </is>
       </c>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5958,7 +5958,7 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I105" s="16" t="n"/>
@@ -5966,7 +5966,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5977,22 +5977,22 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Encienda las máquinas virtuales regularmente cada 90 días para actualizar los tokens</t>
+          <t>Si se utiliza el almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
         </is>
       </c>
       <c r="D106" s="22" t="inlineStr">
         <is>
-          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio De escritorio virtual de Windows, el agente actualiza regularmente el token de la máquina virtual cada vez que la máquina virtual está activa. El certificado para el token de registro es válido por 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
+          <t>Si se requiere una segunda región para fines de recuperación ante desastres, verifique también la disponibilidad de NetApp.</t>
         </is>
       </c>
       <c r="E106" s="22" t="inlineStr">
@@ -6008,7 +6008,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -6016,7 +6016,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -6027,22 +6027,22 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Determinar el SLA de alta disponibilidad esperado para aplicaciones/escritorios publicados a través de AVD</t>
+          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles FSLogix deben estar en la misma ubicación del centro de datos.</t>
         </is>
       </c>
       <c r="D107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">El plan de control avD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr al menos un 99,9 % de disponibilidad para las direcciones URL del servicio Windows Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. Los recursos/servicios dependientes y la disponibilidad de la infraestructura también deben considerarse para satisfacer adecuadamente los requisitos globales de alta disponibilidad. </t>
+          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
         </is>
       </c>
       <c r="E107" s="22" t="inlineStr">
@@ -6058,7 +6058,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/support/legal/sla/virtual-desktop/v1_0/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -6066,7 +6066,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>56c57ba5-9119-4bf8-b8f5-c586c7d9cdc1</t>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6077,22 +6077,22 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Evaluar la región de recuperación ante desastres geográficos para grupos de hosts AVD</t>
+          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
         <is>
-          <t>El modelo Active-Active' se puede lograr con múltiples grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar/replicar en absoluto. 'Activo-pasivo' se puede lograr mediante Azure Site Recovery (ASR) o la implementación del grupo bajo demanda con un mecanismo automatizado.</t>
+          <t>Asegúrese de configurar las siguientes exclusiones antivirus para los discos duros virtuales del contenedor de perfiles FSLogix, como se documenta en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E108" s="22" t="inlineStr">
@@ -6108,7 +6108,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -6116,7 +6116,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>6acc076e-f9b1-441a-a989-579e76b897e7</t>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6127,27 +6127,27 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Separe las aplicaciones críticas en diferentes grupos de hosts AVD</t>
+          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
         </is>
       </c>
       <c r="D109" s="22" t="inlineStr">
         <is>
-          <t>Antes de abordar la planificación y el diseño de BCDR de Windows Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
+          <t xml:space="preserve">La configuración básica y recomendada predeterminada está aquí: https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Consulte aquí el conjunto básico: https://learn.microsoft.com/fslogix/configure-profile-container-tutorialSee aquí para una referencia completa: https://learn.microsoft.com/fslogix/profile-container-configuration-reference </t>
         </is>
       </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6158,7 +6158,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -6166,7 +6166,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>10a7da7b-e996-46e1-9d3c-4ada97cc3d13</t>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6177,22 +6177,22 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Planeación de la mejor opción de resiliencia para la implementación de AVD Host Pool</t>
+          <t>Comprobar el uso de conexiones simultáneas o múltiples al mismo perfil</t>
         </is>
       </c>
       <c r="D110" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">? ¿Seleccionó el nivel de resistencia adecuado para las máquinas virtuales del grupo de hosts (conjunto de disponibilidad frente a zonas de disponibilidad)? ¿Es consciente de las implicaciones en ha SLA y los límites de escalabilidad que vienen con AS o AZ? ? Actualmente puede implementar 399 máquinas virtuales por implementación de plantilla de ARM de Windows Virtual Desktop sin conjuntos de disponibilidad o 200 máquinas virtuales por conjunto de disponibilidad. Puede aumentar el número de máquinas virtuales por implementación desactivando los conjuntos de disponibilidad en la plantilla arm o en la inscripción del grupo de hosts de Azure Portal. La implementación de AZ ahora es posible, una AZ a la vez en este momento, necesita crear manualmente una fracción de máquinas virtuales en cada AZ deseada. </t>
+          <t>Se desaconsejan las conexiones simultáneas o múltiples en Windows Virtual Desktop. La práctica recomendada es crear una ubicación de perfil diferente para cada sesión (como grupo de servidores).</t>
         </is>
       </c>
       <c r="E110" s="22" t="inlineStr">
@@ -6208,7 +6208,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6216,7 +6216,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>25ab225c-6f4e-4168-9fdd-dea8a4b7cdeb</t>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6227,27 +6227,27 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de hacer una copia de seguridad de los hosts de sesión AVD</t>
+          <t>Revisar las mejores prácticas y las consideraciones clave para el dimensionamiento del almacenamiento</t>
         </is>
       </c>
       <c r="D111" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copia de seguridad de Azure también se puede usar para proteger las máquinas virtuales del grupo de hosts, esta práctica es compatible, incluso si las máquinas virtuales del grupo de hosts no tienen estado. Esta opción podría considerarse para los grupos de hosts personales. </t>
+          <t xml:space="preserve">Como estimación general, para ser validada en un entorno de prueba, para cada usuario se deben considerar primero de 5 a 15 IOPS, dependiendo de la carga de trabajo. Azure Files: Premium max 100k IOPS por recurso compartido (máx. 100TB) y hasta 5Gbps con latencia de 3ms. Tenga en cuenta cómo se aprovisiona Azure Files, es decir, IOPS estrictamente vinculadas a SIZE aprovisionado. Capacidad de dimensionamiento de ráfaga en algunos casos. Asegúrese de aprovisionar por adelantado más espacio del necesario para asegurarse de tener suficientes IOPS. NOTA: Azure Premium puede ser más barato que Standard porque no paga transacciones, luego detalles importantes a tener en cuenta. Azure NetApp Files: recuerde un máximo de 1000 direcciones IP conectadas, puede ajustar IOPS sobre la marcha, capacidad aprovisionada mínima de 4 TB. </t>
         </is>
       </c>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6258,14 +6258,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>4c61fc3f-c14e-4ea6-b69e-8d9a3eec218e</t>
+          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6276,22 +6276,22 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Evaluar qué datos deben protegerse dentro de los contenedores de perfil y de oficina</t>
+          <t>Compruebe los procedimientos recomendados para Azure Files (si se usa)</t>
         </is>
       </c>
       <c r="D112" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es posible que no todos los datos dentro de los perfiles de usuario de FSLogix merezcan protección contra desastres. Además, si se usa almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo en caché). </t>
+          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E112" s="22" t="inlineStr">
@@ -6307,7 +6307,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -6315,7 +6315,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6326,22 +6326,22 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Cree una estrategia de protección de copia de seguridad para contenedores de perfiles y de Office</t>
+          <t>Compruebe las prácticas recomendadas para los archivos de NetApp (si se utilizan)</t>
         </is>
       </c>
       <c r="D113" s="22" t="inlineStr">
         <is>
-          <t>Prevenir la pérdida de datos para datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos de perfil de usuario y/o contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos de los usuarios. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de perfiles y contenedores de Office cuando se almacenan en los niveles Standard y Premium de Azure Files. Las instantáneas y directivas de Azure NetApp Files se pueden usar para Azure NetApp Files (todos los niveles).</t>
+          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E113" s="22" t="inlineStr">
@@ -6357,7 +6357,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop-fslogix</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -6365,7 +6365,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6376,27 +6376,27 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Evalúe los requerimientos de replicación y la resiliencia del almacenamiento de información de Profile Container para fines de BCDR</t>
+          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
         </is>
       </c>
       <c r="D114" s="22" t="inlineStr">
         <is>
-          <t>En AVD, se pueden utilizar múltiples mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix:? Patrón de perfil n.º 1: ¿Mecanismos nativos de replicación de almacenamiento de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files o sincronización de Azure Files para servidores de archivos basados en máquinas virtuales? Se recomienda usar almacenamiento replicado en zona (ZRS) o almacenamiento replicado geográfico (GRS) para Azure Files. LRS con resiliencia solo local se puede usar si no se requiere protección de zona / región. Nota : Azure Files Share Standard es LRS/ ZRS / GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiteN LRS / ZRS. ? Patrón de perfil # 2: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache debe usarse solo cuando:? Perfil de usuario o contenedores de Office La disponibilidad de datos requerida SLA de alta disponibilidad es crítica y debe ser resistente a los errores de la región. La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con la compatibilidad con archivos grandes habilitada, GRS no está disponible. Cuando se requiere replicación entre almacenamiento de información dispar.? Patrón de perfil # 3: Solo configure la recuperación ante desastres geográficos para los datos de la aplicación y no para los contenedores de datos / perfiles de usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de RECUPERACIÓN integrado.</t>
+          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se anticipan contenedores de perfiles grandes y los clientes quieren intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil de FSLogix.</t>
         </is>
       </c>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6407,7 +6407,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/fslogix/profile-container-configuration-reference</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6426,22 +6426,22 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
+          <t>Si se utiliza FSLogix Cloud Cache, mueva el directorio Cache a la unidad temporal.</t>
         </is>
       </c>
       <c r="D115" s="22" t="inlineStr">
         <is>
-          <t>Geo Disaster Recovery: Azure NetApp Files es esencialmente LRS (almacenamiento replicado localmente), por lo que debe diseñar algo más si desea replicación entre regiones. La recomendación para cada región en este momento es NetApp Cloud Sync, que se replica en otra región de Azure (y en NetApp Volume). Copia de seguridad: las copias de seguridad son manejadas por instantáneas, pero no son automáticas, deben programarse mediante políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Hay un límite máximo de instantáneas (255) por volumen como se documenta aquí: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t xml:space="preserve">Cloud Cache utiliza el disco local como caché y puede generar mucha presión en el disco de la máquina virtual. Se recomienda aprovechar la potencia del disco de máquina virtual temporal (y conectado localmente), si es posible en función de la SKU de máquina virtual. </t>
         </is>
       </c>
       <c r="E115" s="22" t="inlineStr">
@@ -6457,14 +6457,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://learn.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6475,22 +6475,22 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Revisar la estrategia de recuperación ante desastres de Azure Files</t>
+          <t>Revise el uso de la redirección FSLogix.</t>
         </is>
       </c>
       <c r="D116" s="22" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres geográficos: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con grandes recursos compartidos, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica, al usar Azure File Share Premium, se debe evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) 'en la región'. Copia de seguridad: Copia de seguridad de Azure es totalmente compatible con Azure File Share todos los SKU y es la solución recomendada para proteger los contenedores de perfiles. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos de perfil de usuario y/o contenedores de Office.</t>
+          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen fuera del contenedor de perfiles a la unidad C:. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno donde se pretende implementar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
         </is>
       </c>
       <c r="E116" s="22" t="inlineStr">
@@ -6506,14 +6506,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-afs</t>
+          <t>https://learn.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3d4f3537-c134-46dc-9602-7a71efe1bd05</t>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6524,27 +6524,27 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Dependencias</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Planeación de la disponibilidad entre regiones de Golden Image</t>
+          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de AD en la conexión de AD.</t>
         </is>
       </c>
       <c r="D117" s="22" t="inlineStr">
         <is>
-          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupo de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso en caso de un desastre mayor. El servicio Galería de procesos de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
+          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred ANF y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
         </is>
       </c>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6555,14 +6555,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/create-active-directory-connections</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6573,22 +6573,22 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Dependencias</t>
+          <t>FSLogix</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe las dependencias de infraestructura y aplicaciones </t>
+          <t>Habilite SMB multicanal cuando use un recurso compartido de archivos premium para hospedar contenedores de perfiles FSLogix.</t>
         </is>
       </c>
       <c r="D118" s="22" t="inlineStr">
         <is>
-          <t>Si los usuarios de la infraestructura AVD necesitan acceso a los recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar y evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben tenerse en cuenta para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
+          <t>SMB Multichannel permite a los clientes utilizar múltiples conexiones de red que proporcionan un mayor rendimiento al tiempo que reducen el costo de propiedad. El aumento del rendimiento se logra mediante la agregación de ancho de banda en varias NIC y el uso de la compatibilidad con Receive Side Scaling (RSS) para que las NIC distribuyan la carga de E/S entre varias CPU.</t>
         </is>
       </c>
       <c r="E118" s="22" t="inlineStr">
@@ -6604,7 +6604,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-smb-multichannel-performance</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6612,7 +6612,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6623,41 +6623,45 @@
     <row r="119" ht="16.5" customHeight="1" s="13">
       <c r="A119" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t xml:space="preserve">Host de sesión </t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
-        </is>
-      </c>
-      <c r="D119" s="22" t="n"/>
+          <t xml:space="preserve">Determinar qué tipo de disco administrado se utilizará para los hosts de sesión  </t>
+        </is>
+      </c>
+      <c r="D119" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HDD estándar, SSD estándar o SSD premium, discos efímeros no son compatibles, no se recomiendan discos Ultra. Se recomienda evaluar Premium para el disco del sistema operativo si la densidad de usuarios no es baja y si va a utilizar Cloud Cache. </t>
+        </is>
+      </c>
       <c r="E119" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>No verificado</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6678,7 +6682,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6695,7 +6699,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6703,7 +6707,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6714,17 +6718,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6741,19 +6745,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6789,13 +6789,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6816,7 +6824,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6831,21 +6839,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6895,7 +6895,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6933,19 +6933,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6983,19 +6983,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7033,19 +7033,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7083,19 +7083,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7116,13 +7116,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7133,14 +7133,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7161,13 +7166,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7178,14 +7183,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7206,7 +7211,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7223,14 +7228,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7251,7 +7256,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7268,14 +7273,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7296,7 +7301,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7313,14 +7318,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7341,7 +7346,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7358,14 +7363,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7386,7 +7391,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7403,14 +7408,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7431,7 +7436,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7448,14 +7453,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7476,7 +7481,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7493,14 +7498,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7521,7 +7526,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7538,14 +7543,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7566,7 +7571,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7583,14 +7588,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7601,23 +7606,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7628,14 +7633,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7646,17 +7651,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7673,14 +7678,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7701,13 +7706,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7718,14 +7723,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7746,7 +7751,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7763,14 +7768,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7791,7 +7796,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7815,7 +7820,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7836,7 +7841,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7860,7 +7865,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7881,7 +7886,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7905,7 +7910,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7926,7 +7931,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7943,14 +7948,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7971,7 +7976,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7995,7 +8000,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8085,7 +8090,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8106,7 +8111,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8123,14 +8128,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8146,18 +8151,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8168,14 +8173,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8191,12 +8196,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8213,14 +8218,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8241,13 +8246,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8265,7 +8270,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8286,7 +8291,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8303,14 +8308,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8331,7 +8336,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8355,7 +8360,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8376,13 +8381,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8400,7 +8405,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8421,7 +8426,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8445,7 +8450,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8466,13 +8471,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8490,7 +8495,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8511,7 +8516,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8535,7 +8540,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8556,7 +8561,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8573,14 +8578,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8601,7 +8606,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8618,14 +8623,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8641,12 +8646,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8663,14 +8668,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8686,12 +8691,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8708,14 +8713,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8736,7 +8741,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8753,14 +8758,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8781,7 +8786,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8798,14 +8803,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8826,7 +8831,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8843,14 +8848,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8871,7 +8876,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8888,14 +8893,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8916,7 +8921,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8933,14 +8938,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8961,7 +8966,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8985,7 +8990,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -9006,7 +9011,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -9023,14 +9028,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9039,360 +9044,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10950,7 +11675,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11034,7 +11759,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11090,26 +11815,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11220,7 +11963,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Esta comprobación aún no se ha analizado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11294,7 +12037,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
